--- a/ambassador/reviewer_sheets_excel/reviewer_5_sheet.xlsx
+++ b/ambassador/reviewer_sheets_excel/reviewer_5_sheet.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
@@ -488,28 +488,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Anish</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Mauricio</t>
+          <t>Thapaliya</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador based in Kathmandu, Nepal, I am passionately committed to fostering a stronger AI and machine learning community across Nepal and South Asia, where access to advanced ML education and mentorship remains a significant barrier. My primary focus will be on practical, accessible engagement.
+I will actively engage the community by organizing at least 4 hands-on workshops and 8 webinars annually, starting within Kathmandu Valley universities (like Tribhuvan University and Kathmandu University) and collaborating with local AI clubs and tech communities. These sessions will move beyond basics to cover practical PyTorch applications crucial for our region, such as model fine-tuning for limited datasets, efficient deployment on accessible hardware, and implementing Responsible AI principles. I will establish regular study groups using [Platform, e.g., Discord/Zoom] to provide continuous support.
+To help the PyTorch initiative thrive locally and contribute globally, I will:
+1. Create &amp; Adapt Resources: Develop beginner-friendly tutorials in both Nepali and English and contribute open-source, reproducible project templates addressing local needs (e.g., agriculture analysis, natural disaster prediction).
+2. Foster Contribution: Mentor aspiring developers to contribute documentation improvements, bug fixes, or small features back to the PyTorch ecosystem.
+3. Build Local Capacity: Identify and support emerging PyTorch champions within universities to ensure sustainable growth.
+4. Bridge the Gap: Translate key global updates and showcase South Asian PyTorch projects and challenges on global forums, strengthening the two-way connection.
+My mentorship commitment includes offering structured quarterly mentorship cycles (1:1 or small groups) to help students and early-career professionals navigate learning paths, build confidence in contributing to open-source PyTorch projects, and develop their ML careers.
+By acting as this dedicated bridge between the global PyTorch ecosystem and South Asia's burgeoning talent, I will directly contribute to making PyTorch more accessible, inclusive, and impactful, empowering hundreds of learners in my region within the first year."
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+1. ACL Anthology: MDSBots@NLU of Devanagari Script Languages 2025: Detection of Language, Hate Speech, and Targets using MURTweet 
+Link: https://aclanthology.org/2025.chipsal-1.35/
+2. GitHub Repo: MDSBots@NLU of Devanagari Script Languages 2025: Detection of Language, Hate Speech, and Targets using MURTweet 
+Link: https://github.com/thapaliya123/MDSBots
+3. Medium: Google BERT
+Link: https://medium.com/@thapaliyanish123/google-bert-8e990b64f570
+4. Image Captioning using PyTorch
+Link: https://github.com/thapaliya123/image-captioning
+LinkedIn URL: https://www.linkedin.com/in/anish-thapaliya-83a806194/</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -999,28 +1017,33 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>293</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Nour</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Arroyo</t>
+          <t>Majdoub</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone with hands-on experience teaching deep learning and data science to diverse groups in Tunisia, I am deeply committed to knowledge-sharing and community engagement. My role as an instructor with GOMYCODE has allowed me to mentor students from different backgrounds, create personalized learning paths, and organize mini-competitions in collaboration with other mentors to reinforce their practical understanding—an approach I would bring to the PyTorch community.
+If selected, I plan to actively contribute by hosting workshops, coding bootcamps, and hands-on events focused on PyTorch fundamentals and real-world applications. I aim to create inclusive learning spaces that support beginners while challenging advanced learners through community-oriented projects and engaging study groups.
+Through my university, I already participate as a speaker in conferences and technical workshops, where I demystify complex AI topics for broader audiences. I will leverage these platforms to advocate for PyTorch, showcase its capabilities, and inspire more contributors. In particular, I am passionate about promoting PyTorch across the Arab world and within the Tunisian tech ecosystem, where open-source communities are still emerging. I believe there's immense potential in my community, and I’m committed to making PyTorch more accessible and widely adopted.
+Additionally, my active participation in hackathons as both a competitor and mentor has equipped me to guide teams using PyTorch to build impactful, innovative solutions. My goal is to build a strong, collaborative local PyTorch community that connects with and contributes to the global ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1510,28 +1533,34 @@
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>288</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Anurag</t>
+          <t>Abdou</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Bihani</t>
+          <t>DIOP</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an NLP research engineer and educator, I have acquired solid experience in using PyTorch for cutting-edge research and real-world applications, particularly in the fields of speech processing and under-represented African languages. I regularly design and deliver technical content, including courses delivered entirely in English, to ensure accessibility to a wide audience.
+As a PyTorch ambassador, I will draw on this experience to build and develop a strong PyTorch community in Senegal and throughout West Africa. I plan to organize local meetups, workshops and conferences where participants can gain hands-on experience with PyTorch for various machine learning and deep learning tasks. These events will be aimed at both beginners and advanced practitioners, with an emphasis on practical implementations, reproducible research and inclusive learning environments.
+I also aim to mentor students and early career researchers by providing guidance on open-source contributions, best practices in model development and designing research projects using PyTorch.
+Beyond the events, I will provide educational resources, tutorials and project presentations in English and local languages to lower the barrier of entry for non-native English speakers.
+My main goal is to promote PyTorch as the framework of choice for researchers and developers in Africa by fostering collaboration, building talent and encouraging innovation that reflects the unique challenges and opportunities of our region.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2021,28 +2050,43 @@
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>286</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Aayusha</t>
+          <t>Orestis</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Adhikari</t>
+          <t>Makris</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As the founder and current Chair of the ACM Student Chapter at the University of Patras, I (Orestis) have actively built a thriving student community around computing, AI, and open-source technologies. Last year, I established the Machine Learning Special Interest Group (ML SIG) within our chapter, which now includes 10 active members and continues to grow. We have created a GitHub repository containing curated learning materials to support onboarding, mentorship, and continuous learning for new members.
+As a PyTorch Ambassador, I plan to expand these efforts through the following initiatives:
+Organizing a 3-day PyTorch bootcamp focused on neural networks, hands-on PyTorch  training, and real-world ML applications.
+Hosting internal PyTorch hackathons for SIG members, and broader workshops open  to all students in the Department of Computer Engineering and Informatics, including those from non-CS backgrounds.
+Mentoring first-year students to help them overcome fears  around programming and mathematics by guiding them through beginner-friendly, applied ML projects using PyTorch.
+Collaborating with faculty and local startups in Patras to build a stronger ecosystem for open-source, research-oriented, and industry-aligned ML development using PyTorch.
+With deep connections across the university’s  student and faculty communities, I am well-positioned to promote PyTorch and inspire a new generation of machine learning practitioners at the University of Patras and beyond.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My coding journey began at 12 with basic scripting. At 17, I competed in the Greek Mindstorms Robotics Competition with my school, which sparked my love for programming and problem-solving. Around the same time, I became fascinated by quantum physics, which led me to explore quantum computing — and thus, Python.
+After passing the Greek national entrance exams, I enrolled in the Department of Computer Engineering and Informatics at the University of Patras, the first Computer Engineering program established in Greece. I'm currently in the final year of its five-year integrated Master's program.
+Early on, I joined IEEE Student Branch (Department ECE) activities and eventually founded the IEEE Quantum Computing Group in my second year. In my third year, I served on the IEEE Executive Committee as Public Relations Officer. Noticing a gap in AI-related student initiatives in my department, I founded the ACM Student Chapter of the University of Patras — with the help of our department head and faculty — and later launched its AI Special Interest Group.
+I rank among the top 3 students in my cohort and am currently working on my Master's thesis, developing a novel ranking model based on ColBERT, which adapts BERT-style transformers for efficient information retrieval. My journey reflects a deep passion for building, learning, and teaching, and I am fully committed to contributing to the PyTorch community by sharing knowledge, mentoring, and organizing impactful initiatives.
+Links:
+Linkedin: https://www.linkedin.com/in/orestis-makris-250353208/
+ACM SB Upatras: https://www.ceid.upatras.gr/ekpaideysi/proptychiako/epistimonikes-foititikes-omades/
+ACM SB Upatras SIG AI Rep (under construction):  https://github.com/OrestisMakris/ACM-Upatras-SIG-ML</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -2532,28 +2576,45 @@
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>272</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>ABDULSALAM</t>
+          <t>Parichay</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>BANDE</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Parichay is a seasoned technology leader with 14 years of extensive experience across Artificial Intelligence (AI), Generative AI (GenAI), and Agentic AI solutions. He is widely recognized for guiding global clients through transformative AI journeys, leveraging his deep expertise in AI/ML, Solution Architecture, Cognitive Computing, Data Analytics, and Cloud Computing. As a trusted advisor and practitioner, he brings both strategic insight and hands-on technical execution to the implementation of emerging technologies, with a focus on sustainable innovation.
+In the context of PyTorch and community-driven AI development, Parichay envisions making significant contributions through the following engagements:
+1. Community Leadership and Advocacy:
+Over the past several years, Parichay has actively served as a community lead, ambassador, and evangelist across multiple open-source and emerging technology initiatives. His consistent involvement reflects a deep commitment to knowledge democratization and grassroots technology empowerment.
+2. Active Role in Events and Workshops:
+Parichay has successfully hosted and conducted community events and technical workshops, focusing on AI, GenAI, and open-source technologies. These events have engaged diverse learners, ranging from early-career professionals to seasoned developers.
+3. Execution on Executorch for Edge AI:
+Currently working with Executorch, Parichay is focused on implementing lightweight and efficient AI models for edge computing environments. His work explores the fusion of PyTorch-based solutions with real-time, resource-constrained deployments—an area he aims to further explore and evangelize within the community.
+Future Plans for Community Engagement:
+1. Quarterly PyTorch Events: Organizing thematic, hands-on meetups to showcase real-world PyTorch applications and innovations.
+2. Hackathons and Buildathons: Hosting challenge-driven hackathons with a focus on PyTorch-based development for areas such as computer vision, NLP, and edge AI.
+3.Mentorship Programs: Establishing structured mentoring cohorts for students and developers, focusing on model optimization, deployment, and best practices in PyTorch.
+4. Knowledge-Sharing Sessions: Conducting live and recorded sessions that demystify complex AI concepts, tools, and techniques, encouraging active learning within the community.
+5. Impact Goal: Through these planned initiatives, Parichay aims to engage and positively impact 500+ participants per event, fostering an inclusive, informed, and future-ready developer ecosystem.
+Parichay’s proven track record, combined with his passion for collaborative growth, positions him as a valuable contributor to the PyTorch community. His approach integrates technical depth with community empathy—ensuring that PyTorch’s reach and relevance continue to thrive across domains and geographies.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+To explore my blogs, conference presentations, and educational contributions, kindly visit the following link:
+https://parichaydas.notion.site/Additional-Details-20af7d4341c480c19b84c75a41860b2e</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -3043,28 +3104,40 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>269</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Assoc.</t>
+          <t>Giorgio</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Cinar</t>
+          <t>Magno</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a data scientist in mining industry, I am passionate about applying AI to solve real-world challenges. I am currently exploring PyTorch in an ongoing project that supports our company's sustainability initiatives. The initiative uses drone and LiDAR data to count and classify trees at mine site, enabling the estimation of carbon sequestration. We are developing computer vision models using PyTorch, which allows for efficient experimentation and deployment of deep learning models on complex geospatial data.
+Through this real-world application of using PyTorch, I plan to share how PyTorch can be used to solve meaningful, real-world problems, especially in non-traditional domains like environmental monitoring, sustainability initiatives and geospatial AI. I aim to inspire and educate others by showing practical workflows, challenges, and solutions that can help bridge the gap between research and impact.
+I will utilize my created data science Facebook page, GioData, to create and share educational, engaging, and beginner-friendly content across Facebook, TikTok, and YouTube. This includes short-form videos, tutorials, real-world demos, and insights from active projects. GioData will serve as a space where people can learn how to apply AI in meaningful ways, whether they're students, professionals, or simply curious about data science.
+Leveraging my experience as a student leader when I was still in college, I plan to tap into schools and universities to organize PyTorch workshops and training events, with the hope of launching official PyTorch Organizations within universities and colleges. These organizations will serve as hubs for learning, collaboration, and innovation, empowering students, the next AI practitioners, to build practical skills and contribute to the PyTorch community.
+In addition to school partnerships, I will organize webinars, mentoring sessions, and study groups to support learners of all levels. My mentorship approach focuses on project-based learning and practical application, empowering others to build confidence and capability in PyTorch.
+If I will be given a chance to become a PyTorch Ambassador, my vision is to grow a local and regional PyTorch community that is inclusive, applied, and impact-focused. By combining my technical expertise, content creation through my platform GioData, active community engagement, and mentorship, I aim to empower more people to explore and apply AI and specifically PyTorch, for meaningful and positive impact. I am especially passionate about reaching underrepresented domains and regions, helping bridge gaps and open opportunities for more diverse voices in AI.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Aside from my full-time work, I am also a part-time Data Science Specialist Instructor at CIIT College of Arts and Technology (Philippines). I am teaching data analysis, statistics, machine learning, data science concepts and PowerBi. This teaching experience allows me to stay connected with aspiring data professionals and continuously refine my communication and mentorship skills.
+Additionally, I have served as an ASEAN Youth Ambassador last 2022, which has strengthened my leadership abilities and expanded my experience in community engagement, cross-cultural collaboration, and advocacy. This role fuels my passion for mentoring and empowering the next generation of leaders and innovators.
+CV Link: https://drive.google.com/file/d/1E67w71Tuy_DVzogNbF9pDhMTkoQjIz8v/view?usp=drivesdk
+LinkedIn Link: https://www.linkedin.com/in/giorgioarmanimagno/
+Published Research Link:https://ieeexplore.ieee.org/document/10109472
+GioData Facebook Page Link: https://www.facebook.com/giodataph</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -3554,28 +3627,38 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>264</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Naeem</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Moya-Sánchez</t>
+          <t>Khoshnevis</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I will focus on bridging the gap between cutting-edge research in NeuroAI and scalable engineering practices by activating and supporting the machine learning community at the Kempner Institute at Harvard, as well as at other leading universities in the Greater Boston area. This includes collaborations with affiliated neuroscience and AI labs, and broader engagement with institutions such as MIT, Northeastern, BU, and UMass, to foster a robust research-to-engineering pipeline grounded in PyTorch.
+My contributions will include:
+- Running hands-on workshops for research teams and undergraduates—particularly those transitioning from cognitive science, neuroscience, or psychology to deep learning. These workshops will focus on building PyTorch-based pipelines for modeling biological and artificial agents, including reinforcement learning setups, grid cell-inspired architectures, and transformer-based cognitive modeling.
+- Launching a PyTorch training series for SLURM-based HPC AI clusters, designed for researchers using Harvard’s FASRC and similar academic computing environments. Topics will include PyTorch DDP, FSDP, mixed-precision training on A100/H100 GPUs, and profiling workflows—addressing a critical bottleneck in reproducible, large-scale experiments.
+- Developing public infrastructure and tooling, including a GitHub-hosted HPC Handbook (already initiated), to help academic and research institutions adopt PyTorch for distributed training. These materials will directly support teams at Harvard, MIT, BU, Northeastern, and UMass.
+- Contributing modular open-source components based on my current work developing artificial agents in simulated environments (e.g., PyTorch-based modules for memory, navigation, and sensory processing in reinforcement learning). These will be reusable, well-documented, and targeted at both research and education.
+With over a decade of experience in HPC and numerical analysis, and more than five years in statistical modeling and machine learning using a range of established frameworks, I bring a systems-level understanding to AI development. As a Senior ML Research Engineer at the Kempner Institute, I work at the intersection of neuroscience and artificial intelligence, deeply embedded in real-world scientific workflows. My role gives me access to a broad spectrum of domain specialists—from cognitive scientists to systems engineers—enabling me to connect diverse communities and catalyze interdisciplinary collaboration around PyTorch. I see this ambassadorship as an opportunity to help establish PyTorch as the de facto standard for neuro-inspired AI at scale, not only as a modeling framework, but as a foundation for shared insight into the nature of intelligence itself.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- LinkedIn: https://www.linkedin.com/in/nkhshnvs/
+- HPC Handbook: https://github.com/KempnerInstitute/kempner-computing-handbook (https://handbook.eng.kempnerinstitute.harvard.edu/intro.html)
+- Github: https://github.com/Naeemkh</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -4065,27 +4148,28 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>263</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Navarro</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -4576,28 +4660,33 @@
       <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>262</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Hussain</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Salih</t>
+          <t>Uzoechi</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+To engage with the PyTorch community, I’d actively participate in forums, GitHub discussions and X, offering insights and addressing queries to foster collaboration. To help the initiative thrive, I’d contribute code, improve documentation, and promote best practices. For events, I’d plan virtual workshops to teach PyTorch tools, for mentoring, I’d guide new contributors one-on-one, and for knowledge-sharing, I’d create tutorials and share them via blogs and community channels.
+I am very active on X and I want to promote this project on X through threads and contents, this is the link to my X account below; 
+https://x.com/kennedy4pf_?s=21
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+This is a link of my work on X
+https://x.com/kennedy4pf_/status/1902449422006362303?s=46</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -5087,28 +5176,35 @@
       <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>258</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Sahdev</t>
+          <t>Hussain</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>Zala</t>
+          <t>Salih</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm a machine learning engineer and researcher , make talk with GDGsc for 3 years with college and TEDx speaker in 2025 all about AI and their techniques.
+* I can make contribution
+* share videos or tutorials
+* make a speak
+* mentor students
+(I think in arabic is best to support the community of arabs)
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -5598,28 +5694,58 @@
       <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>253</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Nimisha</t>
+          <t>Sahdev</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Sukhwani</t>
+          <t>Zala</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have been contributing to PyTorch for over two years as an open source contributor, as a speaker, as an author, and as a mentor to many new contributors. 
+I am a recipient of the "PyTorch Community Awards: PyTorch Ambassador Nominee" badge from Linux Foundation. For my contributions to PyTorch and other ecosystem projects, I am also a recipient of the "PyTorch 2024 Contributors Nominee Award" which was announced at the PyTorch Conference 2024. As part of my contributions to the PyTorch, I have earned first place in Docathon H2 2023. One of my mentees also won a 2nd place in Docathon H2 2024. 
+I have provided links to my awards and various talks, articles, and videos on PyTorch, and details on mentoring in the "Additional Information" section. In general, I have over a decade of significant open source contributions in various projects such as PyTorch, Kubernetes, OpenStack, and OASIS TOSCA.
+As an PyTorch Ambassador, I will build on top of my ongoing work on PyTorch as below:
+- Work with PyTorch Foundation to help where and when needed. For example, travel to conference or events if needed by PyTorch Foundation to talk about PyTorch or help at the Foundation booth (as permitted by my current work).
+- Seek speaking opportunities to share PyTorch latest development with the broader open source community through intro and deep dive sessions at various conferences.
+- Seek opportunities to run PyTorch contribution sessions or workshop to help onboard new contributors.
+- Organize/host a local meetup in Raleigh, NC. I am deeply involved with the thriving open source community in the area for over a decade and I host general open source Meetup every quarter for past seven years.
+- Provide help to PyTorch Conferences organizing team as needed e.g. leverage my expertise and experience of serving on the Program Committee for more than ten KubeCons as well as Open Source Summit to review submitted proposals for conference talks.
+- Continue to create content on PyTorch (Articles, Videos, etc.)
+- Continue contributing to PyTorch upstream code and participate in the community events (e.g. Docathon, PyTorch Conferences etc.)
+- Mentor new contributors.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Details of my talks, videos, blogs, and accomplishments on PyTorch are provided below.
+Conference talks on PyTorch:
+- Open Source Summit 2024, Seattle, WA: Get to Know PyTorch, A Cutting Edge Open Source Al Framework for Deep Learning - https://www.youtube.com/watch?v=5Ca06hCv2ko 
+- All Things Open 2024, Raleigh, NC - Democratizing AI Model training: GPU agnostic Deep Learning techniques with PyTorch - https://2024.allthingsopen.org/sessions/2-for-1-democratizing-ai-model-training-gpu-agnostic-deep-learning-techniques-with-pytorch-welcome-to-the-machine
+- IBM TechXchange Conference 2024, Las Vegas, NV: Intro and Deep Dive into PyTorch - https://www.linkedin.com/posts/spzala_pytorch-ibmtechxchange-activity-7251618129376681986-z2Pg
+- IBM TechXchange Day AI and Automation Webinar, 2024: Introduction to PyTorch - https://ibm-ai-automationday.bemyapp.com/
+- All Things Open 2023, Raleigh, NC: GET TO KNOW PYTORCH - https://www.youtube.com/watch?v=CJ_NmSDZzBU 
+Articles/Courses/Videos on PyTorch:
+- Tutorial/Course: “Getting Started with Machine Learning with PyTorch” - https://cognitiveclass.ai/courses/getting-started-with-machine-learning-with-pytorch 
+- Blog (archived)on IBM Developer on Model Training with PyTorch
+- One of my YouTube videos has near 50K views: https://www.youtube.com/watch?v=fJ40w_2h8kk (Unsolicited public comment from a viewer, “Thanks for providing this video IBM, Sahdev and Brad. It really helped me understand what is PyTorch and how I can use it.”)
+- Exploring PyTorch and open source AI tools with Sahdev Zala - https://allthingsopen.org/articles/pytorch-open-source-ai-tools
+Recipient of PyTorch Community Awards: PyTorch Ambassador Nominee badge from Linux Foundation, https://www.credly.com/earner/earned/badge/52e8dba0-b695-41ac-9afc-985338814c81
+Recipient of the PyTorch 2024 Contributors Nominee award, which was announced at the PyTorch Conference 2024 https://pytorch.org/ecosystem/contributor-awards-2024
+Participated in the PyTorch Docathon H1 2023, H2 2023 and H1 2024. Earned first place in Docathon H2 2023 - https://pytorch.org/blog/pytorch-docathon-h2-2023-wrap
+I have mentored many contributors (e.g., IBM contributors plus students at the Georgia Institute of Technology). Below is an unsolicited public post on LinkedIn from one of my mentees: “Excited to share that I got a 2nd place in the PyTorch Docathon... A big thanks to my mentor, Sahdev Zala, who pushed me to join the competition.”
+PyTorch Conference participation:
+I have attended PyTorch Conference 2022, New Orleans, and PyTorch Conference 2024, San Francisco.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -6109,28 +6235,35 @@
       <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>243</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Nura</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Sufiyanu</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch ambassador, i will contribute by empowering the developer and research community through education, engagement, and advocacy:
+1. Educational Content Creation: Develop high-quality tutorials, notebooks, and blog posts that make PyTorch accessible to both beginners and experienced users, especially in areas like deep learning, computer vision, and NLP.
+2. Community Engagement: Actively participate in forums, GitHub discussions, and social platforms to answer questions, provide guidance, and support learners and developers using PyTorch.
+3. Workshops &amp; Talks: Organize and speak at local meetups, online webinars, and conferences to introduce PyTorch tools, best practices, and new features to diverse audiences.
+4. Open Source Contributions: Contribute to PyTorch’s ecosystem by reporting issues, submitting PRs, or building libraries, tools, or examples that enhance the community’s productivity.
+5. Advocacy &amp; Feedback Loop: Serve as a bridge between PyTorch users and the core team—gathering feedback, sharing insights from real-world use, and helping shape the direction of the framework.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr"/>
@@ -6620,10 +6753,8 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>241</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
@@ -6637,11 +6768,23 @@
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am an active contributor to Pytorch Repositories (specifically core pytorch and torchtune) and I aim to continue doing so. Resolving issues and submitting PRs has made me understand pytorch repositories better and I want to learn what PyTorch actually does under its hood, which will help me write in-depth technical content as I learn. I've previously created technical content (tutorials and example notebooks) for IOOS (under Google Summer of Code) and I will create content for Pytorch as well (blogs, tweets, tutorials and examples).  
+Another thing that I have in mind is - A GitHub repo (and a series of blogs/tweets) called `PyTorch-Visual` visualizing how basic methods like `squeeze`, `permute`, `view`, `reshape`, etc work. This is a basic but fundamental thing that most people overlook while writing code (including me). Think of it as an illustrated guide to the working of PyTorch.  
+I am a member of my college's open-source club and I give talks about contributing to open-source in general. The club regularly conducts sessions on technologies like FastAPI, Pandas, etc and I want to start an introductory series `Getting Started with PyTorch` or `PyTorch is all you need` (LOL) to help juniors learn (and maybe contribute to) PyTorch.  
+I've also worked on implementing various research papers in PyTorch and converting TF/Keras codes to PyTorch and I aim to do this for new paper releases as well(in case they haven't open-sourced their code). Few of my paper implementations - https://github.com/omkar-334/agri-ml, https://github.com/omkar-334/HateMM-benchmarks  
+Back when I was in first year of college, I had come across the Tensorflow User Group of my city (Hyderabad) and I wondered why isn't there a PyTorch User Group... I want to organize meetups in Hyderabad for PyTorch enthusiasts and contributors (baby steps), then maybe set up a PyTorch User Group. (maybe one dayPyTorch Conference can be hosted in India!!)
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I was a contributor at Google Summer of Code last year, which enhanced my interests in contributing to OpenSource. Since then I've contributed to various repos like Runpod, Keras, DataFormer, Pytorch, etc.  
+I was an intern at Indian Institute of Technology, Indore, where I had performed research on multimodal hate-speech detection. Our model and the baseline comparison models were implemented in pytorch by me, and the research paper has been accepted to the ACL 2025 Main conference. Most/All of my AI-ML work is done using PyTorch (very grateful for it).  
+I am currently a research intern at Indian Institute of Science, working on time series forecasting and guess what, All of it still involves PyTorch, which only proves the fact that PyTorch is used in all fields of AI/ML.  
+As Yann LeCun said (https://x.com/hardmaru/status/1929363747568762892), The AI industry as you see it now wouldn't have existed without PyTorch.  
+Thank you!</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
@@ -7131,28 +7274,33 @@
       <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>240</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Wachiou</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>BOURAIMA</t>
+          <t>Lam</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would actively engage with the PyTorch community by creating welcoming spaces both online and offline for users of all levels. I plan to organize regular workshops and meetups—both virtual and in-person—where community members can collaborate, share experiences, and learn about the latest developments in PyTorch. These events would include hands-on coding sessions, guest speakers from industry and academia, and open Q&amp;A forums to address members' challenges.
+Mentoring is a key aspect of my vision. I intend to launch a mentorship program that pairs experienced users with newcomers, providing guidance on both technical topics and career development. I will also be available on community channels (such as forums, Discord, and GitHub) to answer questions and support open-source contributions, encouraging more users to get involved.
+For knowledge-sharing, I plan to write detailed tutorials, host webinars, and contribute to the PyTorch documentation. By highlighting community projects and success stories, I hope to inspire others and showcase the diverse ways PyTorch can be used.
+Ultimately, my goal is to foster an inclusive, supportive, and innovative community where knowledge is freely exchanged and everyone feels empowered to contribute.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr"/>
@@ -7642,28 +7790,30 @@
       <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>235</v>
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>Najib</t>
+          <t>Ismail</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>Chowdhury</t>
+          <t>Feranmi</t>
         </is>
       </c>
       <c r="D380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will engage with the pyTorch community by hosting a bootcamp and conferences to talk about AI/ML using pyTorch so that people can learn and gain
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr"/>
@@ -8153,28 +8303,30 @@
       <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>232</v>
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
-          <t>Talib</t>
+          <t>Najib</t>
         </is>
       </c>
       <c r="C407" s="2" t="inlineStr">
         <is>
-          <t>Sayyed</t>
+          <t>Chowdhury</t>
         </is>
       </c>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr"/>
@@ -8664,28 +8816,29 @@
       <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
+      <c r="A434" s="2" t="n">
+        <v>228</v>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Hyogeun</t>
-        </is>
-      </c>
-      <c r="C434" s="2" t="inlineStr">
-        <is>
-          <t>Oh</t>
-        </is>
-      </c>
+          <t>PrettyFave</t>
+        </is>
+      </c>
+      <c r="C434" s="2" t="inlineStr"/>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I intend to offer services within the range of my skills. Some of which are:
+Creating contents ( articles, threads, memes), digital art making (infographics and videos) to publicize the project to the mass and also educating them.
+The fact that I am shameless and passionate about my job is also a feature I can offer ecause this gives me an edge over others as I am able to go the extra mile to get things done.
+In a nutshell, I am always at the front and out there ensuring that the project reaches its utmost potential while delivering more.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I've read through the project and I'll say it's amazing with my in-depth knowledge with web3 and the decentralization I'll help promote and develope the project with content creation, graphic design moderation in my local language and also translate articles.</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
@@ -9175,28 +9328,42 @@
       <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
+      <c r="A461" s="2" t="n">
+        <v>224</v>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>Shrutakeerti</t>
+          <t>Pacifique</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t>Datta</t>
+          <t>Mugisho</t>
         </is>
       </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would focus on empowering the African engineering and student communities with accessible, practical knowledge on AI and deep learning through PyTorch.
+1. Community Workshops and Training
+Drawing from my experience mentoring over 20 students in CAD and Python, and leading engineering projects at Mapon University, I would organize beginner-to-advanced PyTorch workshops. These would focus on real-world applications such as physics-informed neural networks (PINNs), renewable energy systems, and mechanical system optimization.
+2. Localized Educational Content
+I plan to create open-source tutorials and notebooks tailored to engineering students in developing regions. These will be bilingual (English, French), targeting accessibility across Central and East Africa, with a focus on solving domain-specific problems (e.g. renewable energy, solar energy systems, economy, and more) using PyTorch.
+3. Promoting PyTorch for Scientific Research
+With my background in physics-informed modeling and experience presenting research, I aim to demonstrate how PyTorch can be leveraged in scientific computing. This includes promoting PyTorch-based PINNs and hybrid modeling techniques for engineering and physical sciences.
+4. Expanding Awareness and Engagement
+By building partnerships with local universities and leveraging my leadership background (e.g., as President of the Next Gears Engineering Club), I intend to organize PyTorch Study Jams, Hackathons, and ambassador-driven events to foster a growing and inclusive AI community.
+Ultimately, my goal is to champion PyTorch not just as a framework, but as a gateway to innovation, collaboration, and accessibility for aspiring AI practitioners in underrepresented regions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am particularly passionate about using PyTorch to democratize AI for engineering and sustainability-focused solutions in the Global South. Coming from DR Congo and currently based in Rwanda, I have firsthand experience with the gap in AI education and access to modern tools in underserved regions. This drives my mission to make AI more inclusive.
+Through my current postgraduate studies and independent research, I am actively applying PyTorch to cutting-edge topics like thermoacoustics and multifidelity modeling with PINNs. My ongoing projects have already led to peer-reviewed publication and international recognition. I’m eager to integrate these experiences into community resources that demystify PyTorch for students, engineers, and researchers who lack institutional support.
+Additionally, I bring a bilingual advantage (English and French) and a strong foundation in mechanical and AI fields — uniquely positioning me to connect and educate diverse communities across technical and cultural lines.
+Being a PyTorch Ambassador would not only be an honor but also a platform for impact — helping others realize what I did: that with the right tools and mentorship, anyone can build and innovate with AI.</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -9686,28 +9853,31 @@
       <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>217</v>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Menan</t>
+          <t>Saagara</t>
         </is>
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t>Velayuthan</t>
+          <t>Baiju</t>
         </is>
       </c>
       <c r="D488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am actively transitioning back into AI research, bringing with me a strong foundation in software engineering and a growing portfolio in machine learning. During my tenure at Oracle, I demonstrated exceptional organizational and oratory skills by leading and hosting large-scale hackathons and training initiatives across the APAC and EMEA regions. Additionally, I served as a Section Leader for Stanford’s Code in Place, where I mentored students through Python fundamentals and guided them with hands-on practice.
+As a PyTorch Ambassador, I am confident in my ability to contribute meaningfully to the community by organizing events, creating high-quality technical content, speaking at conferences, and mentoring new users.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr"/>
@@ -10197,28 +10367,33 @@
       <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="A515" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>Nurulla</t>
+          <t>Menan</t>
         </is>
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>Matyakubov</t>
+          <t>Velayuthan</t>
         </is>
       </c>
       <c r="D515" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I would organize and host events virtually, for university students, introducing Pytorch Framework. The reason being, Sri Lankan university students start to gain experience of a Deeplearning Framework at the end of their studies, usually 4th year of their Bachelors, I would target audience in first and second years as this will encourage more students to pickup Pytorch early in their journey. I will also create videos similar to the ones i have shared in Additional Information. Mainly targeting Pytorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have done talks on Graph Neural Networks : https://www.youtube.com/watch?v=V84shZC-5yQ
+Low Rank Adapters : https://www.youtube.com/watch?v=q4nTRmmReP8
+Knowledge Distillation: https://www.youtube.com/watch?v=O69pUahcUpw
+I have published in EACL, WMT, COLING. My research works can be seen in my Google Profile : https://scholar.google.com/citations?user=8dn_dfcAAAAJ&amp;hl=en</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr"/>
@@ -10708,28 +10883,32 @@
       <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
+      <c r="A542" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Ed</t>
+          <t>Mukhammad</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Rafsanjani</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to actively contribute to the growth and vitality of the PyTorch community, especially in Southeast Asia, by making PyTorch more accessible and approachable for learners, practitioners, and researchers
+- Building Local Language Content: To lower the barrier for non-English speakers, I plan to create high-quality educational content, such as blog posts, YouTube videos, and Jupyter notebooks in Bahasa Indonesia, covering key PyTorch topics with practical case studies relevant to the region (e.g., Telecommunicatiom, healthcare, education).
+- Community Mentorship: I will dedicate time to mentoring aspiring AI practitioners and students by helping them with open-source contributions, portfolio projects using PyTorch, and preparing for research or industry roles. I’ve previously mentored students in AI internships and will bring that experience to this role.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
@@ -11219,28 +11398,50 @@
       <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="A569" s="2" t="n">
+        <v>210</v>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Nurulla</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>Seng</t>
+          <t>Matyakubov</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Engaging with community on socials networks
+Posting updates about PyTorch on different social media
+Creating and posting the content (Blogs, Videos, Infographics, memes, gifs etc) on different channels
+Bringing new potential partnerships to PyTorch i.e. Communities, Projects, Exchanges etc.
+Helping and bringing the new users on PyTorch and educating them about PyTorch
+Assist in organizing the AMA’s, online and offline events and building the local communities 
+Giving market feedback and suggestions to core team socials
+My name is Nurik, I’m from Turkey
+I have been familiar with cryptocurrency since 2017 year
+Professional skills in the field of blockchain
+1) Community manager, Marketing manager, Social Media Manager. 
+2) Ambassador, Translator, Conten creator video/article/infographic 
+3) Experience in all social networks. (Telegram, Twitter, Facebbok, Reddit
+Medium etc.) 
+ Languages
+• ENGLISH (Fluently)
+• TURKISH (Native)
+• RUSSIAN (Fluently
+• GERMAN (Fluently)
+MY​ YOUTUBE CHANNELS
+1) Nurullah - in turkish language with active audience  38.1K subscribers https://youtube.com/c/Nurullah7
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr"/>
@@ -11730,28 +11931,30 @@
       <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>203</v>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>Kalina</t>
+          <t>Kunal</t>
         </is>
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Boshnakova</t>
+          <t>Mishra</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Since the beginning, PyTorch has been central to my machine learning journey. It's the framework I studied, experimented with, and currently use on a daily basis as an AI/ML engineer working on real-world issues, ranging from forecasting renewable energy to developing AI tools for businesses. I've come to understand that PyTorch is more than just a tool; it's a part of a community that values cooperation, open learning, and pushing the envelope of what's feasible. I want to give back to this amazing community and assist others in growing the way PyTorch helped me, which is precisely why I want to become a PyTorch Ambassador. Assisting others in moving from inquisitiveness to self-assurance is one of my favorite things to do. Whether they are professionals making the switch to AI or students just starting out, I want to be a person they can get in touch with. It's always so satisfying to see someone get their first model working or submit their first open-source contribution, and I've mentored others in developer clubs and hackathons. I would conduct interactive workshops, host open Q&amp;A sessions, and produce beginner-friendly content as an ambassador to help simplify difficult subjects into relatable, easy-to-understand examples. Regardless of where they are coming from, I want everyone to feel like they belong here. In addition, I intend to regularly host in-person and virtual gatherings where researchers, developers, and learners can interact, collaborate, and gain knowledge from one another. These could be brief get-togethers, PyTorch study sessions, or even hackathons where the goal is to use deep learning to solve important problems. The goal is to produce a place where people can freely collaborate, ask questions, and learn together rather than just alone. The true magic, in my opinion, occurs there. Making education accessible is something I'm very passionate about. I understand how daunting this field can feel because I have been in a situation where it wasn't always easy to find the right advice or resources. In order to reach students at smaller colleges who might not have access to robust AI programs, I would like to assist with localizing PyTorch content and translating tutorials into languages like Hindi. We simply need to connect with and encourage the AI talent that is out there. Naturally, I'll also keep making contributions to open source. I've already started working on PyTorch projects that use RAG pipelines, transformers, and LSTMs. Making education accessible is something I'm really passionate about. I understand how intimidating this field can feel because I have been in a situation where it wasn't always easy to find the right resources or guidance. I want to assist with localizing PyTorch content, translating tutorials into languages like Hindi, and converting those experiences into useful codebases that others can use. I want to strengthen the ecosystem and make it more inclusive, whether that means adding documentation, example notebooks, or real model improvements. Making an impact is more important to me as a PyTorch Ambassador than titles. It's about assisting someone in writing their joy when it functions and then witnessing them accomplish incredible feats. I want to contribute to the development of that kind of community. If given the opportunity, I will support and expand the PyTorch family with all of my energy, empathy, and experience.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have participated in multiple hackathons and worked with PyTorch since the 2nd year of my graduation. I wrote some research papers and created a few accelerators for our partner AWS Custom Solutions. Most of my work is private, but I published most of my work on GitHub.</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr"/>
@@ -12241,10 +12444,8 @@
       <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
+      <c r="A623" s="2" t="n">
+        <v>199</v>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
@@ -12258,11 +12459,27 @@
       </c>
       <c r="D623" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As CTO and co-founder of Helio.AI—an AI recruiting platform used by 300+ international brands across 6 countries - I use PyTorch daily to build and deploy real-world AI solutions. I also teach AI/ML at Georgian Technical University and lead PyTorch-based courses with the Georgian AI Association (GAIA). I co-developed the EEGain framework (built entirely on PyTorch) for emotion recognition in EEG research with INRIA and DFKI.
+I’m organizing Georgia’s largest AI hackathon this June, backed by the country’s biggest bank and top university. I’m also a frequent speaker at top tech events (ICLR, Forbes Women Conference, DataFest) and a guest on leading Georgian tech podcasts.
+As a PyTorch Ambassador, I’ll host regular events, publish tutorials based on real-world production use cases, and actively mentor the next generation of AI talent—especially in underrepresented regions like Georgia and Eastern Europe. Since I’m already deeply involved in almost every major tech event in Georgia as a speaker, organizer, or guest, I have a strong platform to grow the PyTorch community quickly and effectively.
+My next goal is to launch a tech/AI newsletter—not just because it's useful, but because I genuinely enjoy writing and sharing insights. If given the opportunity to represent PyTorch, I’d shape the newsletter around practical, engaging PyTorch content—turning it into a focused blog series that highlights new features, best practices, community stories, and real-world case studies with PyTorch at the core.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As I'm Georgian, most of my talks and articles about me are Georgian, but anyways:
+- Forbes 30 Under 30 nominee: https://forbes.ge/honorees/nathia-qukhilava/
+- Speaker at Datafest Tbilisi: https://www.facebook.com/DataFestTbilisi/photos/-introducing-another-brilliant-speaker-at-datafest-tbilisi-2024-natia-kukhilava-/840844711566706/?_rdr
+- Speaker at Forbes Women's Conference Georgia: https://forbes.ge/forbes-georgia-s-qaltha-konpherentsia-gaitsanith-pechakucha-night-stage-is-monatsileebi/
+- Georgian Technical University about my project: https://gtu.ge/en/News/26083/
+- Guest at Top Georgian Tech Podcast: https://www.youtube.com/watch?v=xE4MAuxHnLo
+- Kazakh tech journal about me: https://the-tech.kz/womenintech-success-stories-of-georgian-women-transforming-the-countrys-it-industry/
+- My blog about for business people, how they can use gpt in everyday life: https://dev.ge/news/gpt-qoveldghiurobis-gasamartiveblad-natia-kukhilavas-blogi-1707299368
+- Biggest TV show in Georgia: https://www.youtube.com/watch?v=NKMdwZgb8OA
+and so on ...</t>
         </is>
       </c>
       <c r="E623" s="2" t="inlineStr"/>
@@ -12752,10 +12969,8 @@
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
+      <c r="A650" s="2" t="n">
+        <v>195</v>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
@@ -12769,11 +12984,15 @@
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will contribute the answer of the question or the blog tips related to PyTorch to help people who are using and faced the issue.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E650" s="2" t="inlineStr"/>
@@ -13263,10 +13482,8 @@
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
+      <c r="A677" s="2" t="n">
+        <v>189</v>
       </c>
       <c r="B677" s="2" t="inlineStr">
         <is>
@@ -13280,11 +13497,37 @@
       </c>
       <c r="D677" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+[Current Contributions]
+As the organizer and lead maintainer of the PyTorch Korea User Group since early 2018, I have been actively engaging and growing the PyTorch community in Korea through various impactful initiatives. My contributions include:
+- Building Accessible Resources: I established and manage key resources, including the official Korean translations of PyTorch tutorials (https://tutorials.pytorch.kr), the PyTorch Model Hub (https://pytorch.kr/hub), and the main Korean PyTorch website (https://pytorch.kr), ensuring that new and experienced users alike can easily access and understand PyTorch.
+- Consistent Knowledge Sharing: I regularly translate and update PyTorch blog content (https://pytorch.kr/blog) and develop practical hands-on learning materials (https://hands-on.pytorch.kr) to help Korean users effectively apply PyTorch in real-world projects.
+- Community Engagement and Mentorship: I foster dialogue and technical support through the PyTorch Korea community forum (https://discuss.pytorch.kr), promoting knowledge exchange and inclusive growth. I also deliver 2–3 in-depth PyTorch introductory sessions per year at universities, each lasting 2–3 hours, and provide mentoring to students new to deep learning and PyTorch.
+- Event Hosting and Public Speaking: I organize 2–3 offline PyTorch community meetups annually, recording and sharing presentations via YouTube to ensure broader accessibility. Attendance typically ranges from 40–70 participants. Notably, our most recent meetup on March 30, 2025, attracted over 100 attendees and featured PyTorch Core Maintainer @albanD, alongside representatives from local NPU development companies and infrastructure firms. Additionally, I presented our community’s activities at the PyTorch Conference (presentation in 2023 and poster session in 2024).
+The measurable impact of these efforts is demonstrated through strong community engagement metrics, including over 334K annual users and 1.5M+ page views on pytorch.kr, 216K+ annual users on tutorials.pytorch.kr, and over 328K active users on our discussion platform in 2024 alone. These metrics have been collected via Google Analytics and can be shared upon request.
+My efforts, along with those of other PyTorch Korea organizers, were formally recognized with the 2023 PyTorch Ecosystem Contributor Award for Ambassador Excellence, highlighting the community’s sustained impact and growth. (https://pytorch.org/ecosystem/contributor-awards-2023/)
+[Future Plans]
+As a PyTorch Ambassador, I will:
+* Continue all previous activities that have sustained and grown the PyTorch Korea community.
+* Collaborate closely with the PyTorch Foundation and fellow ambassadors to share insights, best practices, and successful community initiatives.
+These planned activities are designed not only to align with the PyTorch Foundation’s values of openness, inclusion, and collaboration, but also to significantly deepen local engagement while contributing to the broader global PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+[Resources about PyTorch Korea User Group]
+* PyTorch Korea main website: https://pytorch.kr
+* PyTorch Korean Tutorials: https://tutorials.pytorch.kr
+* PyTorch Blog Translations: https://pytorch.kr/blog
+* Hands-on PyTorch (WIP): https://hands-on.pytorch.kr
+* PyTorch Discussion Community: https://discuss.pytorch.kr
+* YouTube Channel with Community Meetup Videos: https://youtube.com/@pytorchkr
+[Resources about me]
+* 2023 PyTorch Community Awardee, PyTorch Ambassador: https://pytorch.org/ecosystem/contributor-awards-2023/
+* PyTorch Conference presentations (2023): https://www.youtube.com/watch?v=80MGwzKQOc4
+* PyTorch Conference poster session (2024): https://pytorch2024.sched.com/event/1fHxs/poster-presentations</t>
         </is>
       </c>
       <c r="E677" s="2" t="inlineStr"/>
@@ -13774,28 +14017,36 @@
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
+      <c r="A704" s="2" t="n">
+        <v>184</v>
       </c>
       <c r="B704" s="2" t="inlineStr">
         <is>
-          <t>Gaurav</t>
+          <t>Sumantro</t>
         </is>
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Sarkar</t>
+          <t>Mukherjee</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to bridge the gap between open-source contributors and AI/ML practitioners by advocating PyTorch adoption through Fedora, CentOS and other varients. I will be focusing in creating Pytorch chapters and run events in colleges and help develop the mindset in students and professionals alike. I would also want to onboard more contributors to represent my region and retain who currently contribute to Pytorch. I would also like to work closely to expand the footprint and mindshare of Pytorch in the evolving ecosystem of AI. I plan to write blogs, create tutorials, examples and participate in technical discussions via PRs and forums.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a Senior Quality Engineer for Fedora Project (https://getfedora.org/). I have a little over a decade of experience with open source and tech evangalism. I held multiple critical positions at the Fedora Project and Mozilla(https://www.mozilla.org/credits/) previously; ranging from App Review to Fedora Council and Mindshare member. Lately, I have spoken about Pytorch at DevconfIN with Sr. manager RHEL AI, Sudhir D. (Event report https://pytorch.org/blog/pt-fedora-os-communities/). I've authored and maintained Quick Docs - Fedora's shorthand quickstart for community to use AI (https://docs.fedoraproject.org/en-US/quick-docs/pytorch/). I have made PRs for Autograd,Examples and other repos. 
+Autograd PR (merged) : https://github.com/pytorch/pytorch/pull/151750
+Examples Swin Transformer (Under Review) : https://github.com/pytorch/examples/pull/1346
+Pytorch:site : https://github.com/pytorch/pytorch.github.io/pull/2024
+Fedora Magazine AI Article : https://fedoramagazine.org/running-stable-diffusion-with-automatic1111-locally/
+https://fedoramagazine.org/running-generative-ai-models-locally-with-ollama-and-open-webui/
+I am also the Mentor and Org Admin for the Fedora Project at Google Summer of Code 2025 (https://summerofcode.withgoogle.com/programs/2025/projects/hiavWdHr) where I am mentoring.</t>
         </is>
       </c>
       <c r="E704" s="2" t="inlineStr"/>
@@ -14285,28 +14536,55 @@
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
+      <c r="A731" s="2" t="n">
+        <v>173</v>
       </c>
       <c r="B731" s="2" t="inlineStr">
         <is>
-          <t>Efe</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="C731" s="2" t="inlineStr">
         <is>
-          <t>Güler</t>
+          <t>Coma</t>
         </is>
       </c>
       <c r="D731" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm from the FEU Tech ACM, a 500+ member Computer Science Community centered at Manila, Philippines. We regularly conduct 5~7 internal/external events per term (3 months) in-person and online. With the recent inclusion of AI in our curriculum, we currently plan to hold the following with many more soon:
+- Event: 3-day in-person Machine Learning Workshop and Hackathon with Keras and PyTorch. Proposal Link: https://docs.google.com/document/d/19mzTE82pMr9nANVleCvqX3S4548lqgl9NXzfxXtY714/edit?usp=sharing
+- Talk: Vision-Language Models and MultiModal Deep Learning with PyTorch
+- Outreach: 1-day in-person Python and PyTorch Fundamentals for ML
+Moreover, knowledge sharing sessions in Discord organized in collaboration with PyTorch and interested volunteers.
+As a student leader of over 3 years, I understand this is not a solitary endeavor. We will collaborate local and international communities like Data Engineeering Pilipinas, Gen AI Philippines, Python Philippines, DevCon, and many more. Our community has a following of 5.7k+ followers on Facebook, 600+ LinkedIn, and 70+ on YouTube and structured in different committees (external, academics, publication, etc). 
+Our primary target audience is the Filipino tech community first within Manila and then scale to other major cities. Event recordings and competitions shall be available to everyone as posted in our Facebook Page. With our organization and the Filipino community's efforts, together with PyTorch, we aim to bridge the gap between academe and industry in the ML/DL space. As a potential PyTorch student ambassador, I shall see this through.
+---
+FEU Institute of Technology: https://www.facebook.com/FEUTechOfficial
+FEU Tech ACM: https://www.facebook.com/feutechACM
+Data Engineering Pilipinas: https://www.facebook.com/groups/1225639754738756
+Gen AI Pilipinas: https://www.facebook.com/groups/1908503506266152
+Python Philippines: https://www.facebook.com/pythonph
+DevCon: https://www.facebook.com/DEVCONPH
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi, All. I'm Alpha, a 3rd-year Computer Science Scholar at FEU Institute of Technology, an AI Engineer at a US-based AI startup, Deep Learning Engineer at MicroMarc Research (Thesis), an Author at FreeCodeCamp, and a GitHub Campus Expert Trainee.
+Relevant blogs:
+- Supercharge your AI Research with Google TPUs in VS Code: https://alpharomer.vercel.app/blog/supercharge-your-ai-research-with-google-tpus-in-vs-code
+Ongoing Research:
+- Augmenting Multimodal Deep Learning with Attention Mechanisms to Recognize "Sludge Videos" from Short-Form Content (Vision-Language Model)
+Some of my recent engagements with other communities in 2025:
+- Jan 7: Modern Web + AI session for 32 Virlanie Foundation for Filipino Children delegates and FEU Tech ACM members in person: https://www.facebook.com/share/16M8jmFsrq/
+- Jan 24: Guided 40 students to pass the GitHub Foundations exam in person: https://www.facebook.com/share/16SYTMY4op/
+- Feb 26: Two-hour GitHub developer workshop for 55 PUP students (GDG on Campus);  distributed 55 GitHub Education certification vouchers: https://www.facebook.com/gdg.pupmnl/posts/606631038846052
+- Mar 18: Engaged 40+ data engineering aspirants with Guide to get Microsoft Certification Voucher Discount: https://www.facebook.com/share/p/1BmCkcyQKi/
+- May 6: Presented to 600+ graduating CompEng students at PUP a talk about Advanced GitHub; distributed 100 GitHub Education certification vouchers: https://www.facebook.com/share/1cHt5QDWbP
+---
+Verify my account and contributions on LinkedIn: https://linkedin.com/in/alpharomercoma</t>
         </is>
       </c>
       <c r="E731" s="2" t="inlineStr"/>
@@ -14796,28 +15074,30 @@
       <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
+      <c r="A758" s="2" t="n">
+        <v>171</v>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>Osman</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>Sesay</t>
+          <t>RAHMAN</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+providing mentorship, actively contributing to pytorch community
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+i was an active contributer to community driven computer vision course hosted by huggingface https://huggingface.co/learn/computer-vision-course/en/unit0/welcome/welcome</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
@@ -15307,28 +15587,33 @@
       <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
+      <c r="A785" s="2" t="n">
+        <v>168</v>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
-          <t>Mitzuko</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t>Callañaupa</t>
+          <t>singh</t>
         </is>
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, the nominee would play an active role in fostering a vibrant and inclusive community. They plan to engage with the PyTorch ecosystem by contributing educational content, including tutorials, blog posts, and open-source code, tailored to both beginners and advanced users. Their focus will be on demystifying complex concepts in deep learning, especially through practical projects and hands-on workshops.
+The nominee intends to organize regular events such as local meetups, online webinars, and PyTorch hackathons that encourage collaboration, learning, and innovation. These events would not only promote the adoption of PyTorch but also provide a platform for community members to share their projects and ideas.
+Mentorship is a core part of their vision. They aim to support early-career developers and students by offering guidance on PyTorch fundamentals, research applications, and real-world deployment strategies. Through structured mentorship programs and open office hours, the nominee will help community members overcome challenges and grow their skills.
+By sharing their own journey and actively listening to the community's needs, the nominee will help shape a more inclusive and accessible PyTorch initiative that welcomes learners from diverse backgrounds.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
@@ -15818,28 +16103,35 @@
       <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
+      <c r="A812" s="2" t="n">
+        <v>165</v>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>singh</t>
+          <t>Watt</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I help run the PyTorch ATX meetup with Jason Meaux. Our meetup was just started in January but it has grown to the point where in April Jason and I just completed a sponsored 50 person event focused on GPU Kernel programming with recorded videos. I sourced the speakers, recorded the videos, did post-production of the videos and wrote the recap blog which is being profiled on the PyTorch foundation blog. We have another 200 person event planned in August around vLLM and PyTorch based inferencing, where we plan to run a similar playbook. As an ambassador, I'd like to:
+- bring together the Austin community working in the PyTorch ecosystem through meetups, paper reviews and knowledge sharing and help inform them about where the technology stack is going. This is really lacking. There was no sense of community here around PyTorch and we're rapidly changing that.
+- Continue to produce and share high quality blog posts and video content from these meetups and events
+- be the formal liaison between PyTorch ATX and the PyTorch foundation
+- Grow our " quarterly large events" into an actual one day PyTorch conference by December this year.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have over two decades of experience in Open Source projects and communities. I was an early contributor in both the Apache Big Data / Hadoop Projects and Ecosystem and the Kubernetes / CNCF Projects and Ecosystem. I ran the Austin Hadoop and Big Data Meetup for 4 years. 
+Outside of the community, I am a Distinguished Engineer and lead the Office of the CTO at Red Hat. I have teams working on Research, Emerging Technologies and Community Strategy on PyTorch - https://www.linkedin.com/in/wattsteve/</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -16329,28 +16621,32 @@
       <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="A839" s="2" t="n">
+        <v>162</v>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Mirza</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Abbas</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Being a Software Engineering student and an ML enthusiast with hands-on experience using PyTorch for various deep learning and reinforcement learning projects, I'm happy to contribute to the PyTorch Ambassador Program by building a community that will help students and developers to learn and experiment with PyTorch through hands-on projects and interactive sessions.
+I'm excited to connect with and support the PyTorch community by organizing workshops and webinars both at my university and online, helping learners understand core PyTorch concepts. I also aim to offer mentorship to students and early-stage ML enthusiasts, particularly through open-source collaboration and university student clubs. Additionally, I will actively participate in community forums, contribute to the PyTorch Discussion Boards, and collaborate on open-source projects, promoting a collaborative community.
+My goal as a PyTorch Ambassador is to bridge the gap between education and real-world applications, especially in underrepresented or beginner communities, and to inspire others to explore the potential of deep learning with PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
@@ -16840,28 +17136,34 @@
       <c r="I865" t="inlineStr"/>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
+      <c r="A866" s="2" t="n">
+        <v>158</v>
       </c>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>Jiho</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Tanvir</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm really passionate about machine learning and always excited to learn more, so this ambassador opportunity feels like a great way to give back to the PyTorch community and help others grow alongside me.
+I’d love to engage with the community by organizing beginner-friendly workshops and coding sessions—both on campus and online—so more students can get hands-on experience with PyTorch. I know how overwhelming it can feel at first, so I want to create a space where people can learn together, ask questions, and build cool things without feeling intimidated.
+I also plan to mentor juniors or peers who are just getting started. Whether it’s helping with assignments, guiding personal projects, or walking through tutorials step by step, I want to make learning PyTorch feel approachable and exciting.
+Outside of events and mentoring, I’d be happy to share my own learning journey through blog posts or short videos. Seeing real, relatable examples can really inspire others to dive in and experiment. I’m also interested in hosting small hackathons or project showcases to encourage creativity and open-source contributions.
+Overall, the goal is to build a welcoming, active community where students support each other and grow together using PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E866" s="2" t="inlineStr"/>
@@ -17351,28 +17653,33 @@
       <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="A893" s="2" t="n">
+        <v>152</v>
       </c>
       <c r="B893" s="2" t="inlineStr">
         <is>
-          <t>Meetish</t>
+          <t>Zesheng</t>
         </is>
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Zong</t>
         </is>
       </c>
       <c r="D893" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+- Manage four PyTorch social media platforms in China, helping Chinese users more easily access official technical blogs and news.
+- Maintain the Chinese version of the PyTorch website and tutorials.
+- Lead the out-of-tree accelerator exploratory group to support diverse AI training hardware within the PyTorch community, fostering a vibrant and scalable PyTorch hardware ecosystem.
+- Actively contribute to PyTorch, having resolved over 50 issues in the past four months.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E893" s="2" t="inlineStr"/>
@@ -17862,28 +18169,31 @@
       <c r="I919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
+      <c r="A920" s="2" t="n">
+        <v>149</v>
       </c>
       <c r="B920" s="2" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>TALMEEZ</t>
         </is>
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>Mir</t>
+          <t>FUAAD</t>
         </is>
       </c>
       <c r="D920" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am in a region where technology and academics are less fortunate, I'll try to collaborate with other universities to make larger events maybe once but that should be impactful, after this I can surely say that our community can be benefited.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/itstalmeez/
+https://www.linkedin.com/posts/itstalmeez_artificialintelligence-ai-aiapplications-activity-7092133370935017472-Y86M?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADUaEY8BkbtPX0R1H_IlEMZhGQhTZ9P98wA</t>
         </is>
       </c>
       <c r="E920" s="2" t="inlineStr"/>
@@ -18373,28 +18683,35 @@
       <c r="I946" t="inlineStr"/>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
+      <c r="A947" s="2" t="n">
+        <v>144</v>
       </c>
       <c r="B947" s="2" t="inlineStr">
         <is>
-          <t>TALMEEZ</t>
+          <t>Bassey</t>
         </is>
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>FUAAD</t>
+          <t>Ene</t>
         </is>
       </c>
       <c r="D947" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a nominee, I’ll engage with the PyTorch community by being an active contributor, hosting hands-on workshops, and supporting open discussions. I plan to organize events like contributor sprints and mentoring sessions to help new and diverse voices grow. I’ll also share knowledge through clear tutorials, talks, and community-driven resources to make PyTorch more accessible and collaborative for everyone.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://x.com/HODLer300?t=AEflf_hrojKAdRadNzRRow&amp;s=09
+https://x.com/HODLer300/status/1907494269641965823?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1908116773091627051?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1920769636510900269?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1919496562939453715?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1921633127509713014?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19</t>
         </is>
       </c>
       <c r="E947" s="2" t="inlineStr"/>
@@ -18884,28 +19201,34 @@
       <c r="I973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
+      <c r="A974" s="2" t="n">
+        <v>142</v>
       </c>
       <c r="B974" s="2" t="inlineStr">
         <is>
-          <t>TAMWO</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C974" s="2" t="inlineStr">
         <is>
-          <t>VALERE</t>
+          <t>Gong</t>
         </is>
       </c>
       <c r="D974" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I plan to create an accessible entry point for newcomers by developing a "PyTorch Fundamentals" video that breaks down complex concepts into digestible tutorials. 
+I am partnered with several developer communities and can deliver workshops in person and online on PyTorch and building various projects. 
+I will contribute detailed technical blog posts exploring PyTorch best practices, optimization techniques, and real-world applications, publishing these on both personal platforms and community forums.
+I'll also develop and open-source practical project templates that showcase PyTorch's capabilities across various domains including computer vision, NLP, and reinforcement learning.
+Mentorship Initiatives
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+graceg.co for more info!</t>
         </is>
       </c>
       <c r="E974" s="2" t="inlineStr"/>
@@ -19395,28 +19718,30 @@
       <c r="I1000" t="inlineStr"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+      <c r="A1001" s="2" t="n">
+        <v>136</v>
       </c>
       <c r="B1001" s="2" t="inlineStr">
         <is>
-          <t>Bassey</t>
+          <t>Omer</t>
         </is>
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>Toqeer</t>
         </is>
       </c>
       <c r="D1001" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I would contribute as a PyTorch Ambassador by hosting hands-on workshops, sharing real-world use cases, and creating beginner-friendly tutorials. I aim to build a collaborative and inclusive space for learners and professionals to grow with PyTorch. Mentoring and open knowledge-sharing will be central to my approach in helping the community thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1001" s="2" t="inlineStr"/>
@@ -19906,28 +20231,30 @@
       <c r="I1027" t="inlineStr"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
+      <c r="A1028" s="2" t="n">
+        <v>134</v>
       </c>
       <c r="B1028" s="2" t="inlineStr">
         <is>
-          <t>Davy</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1028" s="2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Amin</t>
         </is>
       </c>
       <c r="D1028" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+He will do the nice stuff select him
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1028" s="2" t="inlineStr"/>
@@ -20417,28 +20744,36 @@
       <c r="I1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="A1055" s="2" t="n">
+        <v>129</v>
       </c>
       <c r="B1055" s="2" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C1055" s="2" t="inlineStr">
         <is>
-          <t>Chan</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1055" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Creating/translating existing tutorials and other learning resources in (vernacular) Tamil  to accelerate the learning.
+Hosting events in the city and its neighbouring cities to educate and mentor the students in Technical institutions and members of start-ups to use PyTorch for Deep learning solutions.
+Conducting regional competitions for students to showcase their projects built using PyTorch.
+Building and nurturing a vibrant local community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Slides: https://iitm-pod.slides.com/arunprakash_ai/decks/dl 
+Teaching in (vernacular) Tamil :  https://www.youtube.com/watch?v=KOiaOx0NFxc 
+Blog: https://arunprakash-a.github.io/
+Google Scholar: https://scholar.google.com/citations?user=NAbnpmEAAAAJ&amp;hl=en</t>
         </is>
       </c>
       <c r="E1055" s="2" t="inlineStr"/>
@@ -20928,28 +21263,30 @@
       <c r="I1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
+      <c r="A1082" s="2" t="n">
+        <v>124</v>
       </c>
       <c r="B1082" s="2" t="inlineStr">
         <is>
-          <t>Aakash</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="C1082" s="2" t="inlineStr">
         <is>
-          <t>Rana</t>
+          <t>AbdulRazek</t>
         </is>
       </c>
       <c r="D1082" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1082" s="2" t="inlineStr"/>
@@ -21439,28 +21776,30 @@
       <c r="I1108" t="inlineStr"/>
     </row>
     <row r="1109">
-      <c r="A1109" s="2" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
+      <c r="A1109" s="2" t="n">
+        <v>123</v>
       </c>
       <c r="B1109" s="2" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Karn</t>
         </is>
       </c>
       <c r="C1109" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Watcharasupat</t>
         </is>
       </c>
       <c r="D1109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My primary interface with PyTorch is thru its use in audio ML. There are many audio toolings in torch that remains less mature compared to vision or nlp counterparts. I hope my experience will help others navigate torch for audio ML and help with identifying any needs for new developments.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1109" s="2" t="inlineStr"/>
@@ -21950,28 +22289,46 @@
       <c r="I1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
+      <c r="A1136" s="2" t="n">
+        <v>121</v>
       </c>
       <c r="B1136" s="2" t="inlineStr">
         <is>
-          <t>Emre</t>
+          <t>Ruchi</t>
         </is>
       </c>
       <c r="C1136" s="2" t="inlineStr">
         <is>
-          <t>Kurtoglu</t>
+          <t>Pakhle</t>
         </is>
       </c>
       <c r="D1136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to grow the PyTorch community in India (especially Bangalore) by organizing local meetups, beginner-friendly contribution sessions, and workshops focused on PyTorch fundamentals and ecosystem tools. I've already spoken with members of the Red Hat AI/ML team (including Cara and Jeremy) and @sdharane about expanding community efforts in Bangalore.
+I will:
+- Host monthly community sessions covering PyTorch fundamentals, real-world use cases, and contribution onboarding.
+- Publish technical content like blogs, reproducible notebooks, and video tutorials for newcomers.
+- Mentor early-career contributors interested in PyTorch and open-source AI/ML.
+- Collaborate with Red Hat and upstream maintainers to increase awareness and involvement in enterprise PyTorch usage.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have been an active contributor in open source since my early college days. Some of my key involvements include:
+- Linux Foundation Mentorship Program (LFX): Spring 2022 mentee at Open Horizon
+- Google Summer of Code (GSoC) 2025: Selected contributor for AsyncAPI
+- AsyncAPI Mentorship Program: Past mentee, contributing to specification and tooling for the Glee project
+- Ansible: Currently an active maintainer, regularly contributing to both collections and community infrastructure
+I’ve actively participated in various open-source communities and initiatives, mentoring others. 
+I am also a active speaker for national and international conferences like 
+- FOSSASIA SUMMIT 2025 wherein I delivered a talk on Effective Service Integration Testing: Using Testcontainers, LocalStack and Ansible Automation Platform for Streamlined Development
+- Spoke at DevConf.IN 2025 on the topic - Kafka Streams, Ansible Automates: Backbone for Building Scalable
+Event-Driven Systems
+I’m also currently contributing to and exploring PyTorch internally at Red Hat, focusing on upstream community involvement and enterprise usage patterns
+These experiences reflect my long-standing passion for open source, mentoring, and community building, which I would love to extend further as a PyTorch Ambassador.</t>
         </is>
       </c>
       <c r="E1136" s="2" t="inlineStr"/>
@@ -22461,28 +22818,40 @@
       <c r="I1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" s="2" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
+      <c r="A1163" s="2" t="n">
+        <v>118</v>
       </c>
       <c r="B1163" s="2" t="inlineStr">
         <is>
-          <t>Ruchi</t>
+          <t>Srishti</t>
         </is>
       </c>
       <c r="C1163" s="2" t="inlineStr">
         <is>
-          <t>Pakhle</t>
+          <t>Gureja</t>
         </is>
       </c>
       <c r="D1163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am the most interested in:
+- Doing in depth technical posts around the PyTorch ecosystem and how it all fits together including the use of its high level API (in Python of course, but also in C++ as very limited content is available on LibTorch), how to extract the best performance out of it using various optimization techniques and also blogs explaining how PyTorch works under the hood (understanding autograd in-depth has really improved me as a PyTorch coder).
+- Open sourcing high quality github repos with paper implementations in PyTorch (again I want to focus on both Python and Cpp here but more on the former due to its popularity).
+- Quick tips and gotcha posts on Twitter and LinkedIn eg. bugs that are hard to spot by looking like the silent failures that can occur because of tensors becoming non-leaf etc.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Personal website: https://srishti-git1110.github.io/
+I used to do a lot of PyTorch posts on LinkedIn and Twitter but linking them all here would be a spam so I'll refrain from adding them all but just do a few samples here:
+1. [PyTorch DataClass, DataLoader and DataPipes which were new back then](https://wandb.ai/srishti-gureja-wandb/posts/reports/How-To-Eliminate-the-Data-Processing-Bottleneck-With-PyTorch--VmlldzoyNDMxNzM1)
+2. [Named tensors and why I feel they're promising](https://x.com/srishti_gureja/status/1532734082899054592)
+3. [.to, autograd and the consequences](https://x.com/srishti_gureja/status/1593607128329048065)
+4. [in-place ops and consequences](https://x.com/srishti_gureja/status/1562664436413870082)
+Until ~1.5 years back, I also loved to visit and help people on the PyTorch forums but I've stopped that for quite sometime now. I do plan to resume it so linking my forum profile here: https://discuss.pytorch.org/u/srishti-git1110/summary
+I was also one of the recipients of the PyTorch Contributor Awards in year 2023: https://pytorch.org/ecosystem/contributor-awards-2023/</t>
         </is>
       </c>
       <c r="E1163" s="2" t="inlineStr"/>
@@ -22972,28 +23341,33 @@
       <c r="I1189" t="inlineStr"/>
     </row>
     <row r="1190">
-      <c r="A1190" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
+      <c r="A1190" s="2" t="n">
+        <v>113</v>
       </c>
       <c r="B1190" s="2" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Saroj</t>
         </is>
       </c>
       <c r="C1190" s="2" t="inlineStr">
         <is>
-          <t>Fadhili</t>
+          <t>Dahal</t>
         </is>
       </c>
       <c r="D1190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have been teaching Programming in my YouTube channel (https://youtube.com/@EverydayKarma) since 2019, and currently uploaded AI/ML related videos. From there, I will assist in promoting pytorch to my Nepali Tech community and to my students. Also, I am involved in various tech communities of Nepal, and it will be easier for me to reach out to different workshops and events with ease in different colleges, and organizations. And, we have our discord community too, of 1.5K people (https://bit.ly/ek_discord), where I most of the time do sessions and own workshops.
+And, currently, I am doing my Masters in Artificial Intelligence in Kathmandu University; and have engaged in some projects of AI/ML in the company, From there too, I will be fostering pytorch usage to my company and to the university programs and events.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+This link shows the tech events that I was involved in over the years :
+https://sarojdahal.com/events
+My Linkedin : https://linkedin.com/in/isarojdahal</t>
         </is>
       </c>
       <c r="E1190" s="2" t="inlineStr"/>
@@ -23483,27 +23857,24 @@
       <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
-      <c r="A1217" s="2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="A1217" s="2" t="n">
+        <v>111</v>
       </c>
       <c r="B1217" s="2" t="inlineStr">
         <is>
-          <t>Vash</t>
-        </is>
-      </c>
-      <c r="C1217" s="2" t="inlineStr">
-        <is>
-          <t>Puno</t>
-        </is>
-      </c>
+          <t>samman</t>
+        </is>
+      </c>
+      <c r="C1217" s="2" t="inlineStr"/>
       <c r="D1217" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -23994,28 +24365,26 @@
       <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
-      <c r="A1244" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A1244" s="2" t="n">
+        <v>107</v>
       </c>
       <c r="B1244" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
-        </is>
-      </c>
-      <c r="C1244" s="2" t="inlineStr">
-        <is>
-          <t>Shaukat</t>
-        </is>
-      </c>
+          <t>Argo</t>
+        </is>
+      </c>
+      <c r="C1244" s="2" t="inlineStr"/>
       <c r="D1244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a professional in Computer Vision and Deep Learning fields I often:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- [linkedin](https://linkedin.com/in/argo-saakyan/)</t>
         </is>
       </c>
       <c r="E1244" s="2" t="inlineStr"/>
@@ -24505,28 +24874,41 @@
       <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="A1271" s="2" t="n">
+        <v>104</v>
       </c>
       <c r="B1271" s="2" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Akaash</t>
         </is>
       </c>
       <c r="C1271" s="2" t="inlineStr">
         <is>
-          <t>Mouad</t>
+          <t>Tripathi</t>
         </is>
       </c>
       <c r="D1271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Community Engagement &amp; Growth:
+Drawing on his role as Community Growth Manager at Where U Elevate—where he doubled user engagement through data‑driven strategy and market research—Akaash would establish and moderate a “Torch Corner” channel (Slack/Discord) for real‑time Q\&amp;A and code reviews. He’d run bi‑weekly office hours and AMAs, just as he collaborated with senior QA teams at Paytm to troubleshoot automation scripts, ensuring rapid resolution of PyTorch user issues.&amp;#x20;
+Event Planning &amp; Execution:
+As TFUG Ghaziabad Lead, Akaash organized 20 events (11 online) in two years—growing membership to 8,000+ and earning Google For Developers’ “Most Impactful Community” award. He’ll apply that same event‑management rigor to PyTorch: from foundational “Tensors &amp; Autograd” bootcamps to advanced distributed‑training workshops and 48‑hour “Torchathons,” partnering with university AI clubs (e.g., NITRA Technical Campus) and industry sponsors for venues, GPU credits, and swag.&amp;#x20;
+Open‑Source &amp; Mentoring:
+Building on his mentorship at TreeHacks and GSSOC—where he guided teams in ML model integration and cloud API debugging—Akaash will host quarterly “PyTorch Fixathons,” pairing newcomers with experienced maintainers to tackle beginner‑friendly GitHub issues. He’ll launch a one‑on‑one mentorship program with clear milestones (“Implement ResNet block by Week 2; TorchScript export by Week 4”), modeled on his structured support of community members at TFUG.&amp;#x20;
+Knowledge Sharing:
+Akaash’s technical writing experience (projects in anomaly detection using Python/Pandas and Azure Cognitive Services; GUI tools in Tkinter) equips him to produce blog posts and video tutorials on PyTorch best practices—custom modules, optimization tricks, deployment with TorchScript. He’ll maintain a public “PyTorch Learning Roadmap” and community “cookbook” of recipes, akin to his algorithmic LCM project, ensuring reproducible, low‑cost solutions.&amp;#x20;
+Success Metrics &amp; Feedback:
+He will track active channel membership growth, event attendance, number of PRs merged from new contributors, and mentorship pair completions—mirroring his data‑driven achievements at Where U Elevate and TFUG—and iterate formats based on post‑event surveys and community polls.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Medium Link: https://medium.com/@tripathiakaash
+TFUG Ghaziabad: https://www.commudle.com/communities/tensorflow-user-group-ghaziabad
+LinkedIn: https://www.linkedin.com/in/akaash-t-bb9211212/</t>
         </is>
       </c>
       <c r="E1271" s="2" t="inlineStr"/>
@@ -25016,28 +25398,31 @@
       <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
-      <c r="A1298" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="A1298" s="2" t="n">
+        <v>101</v>
       </c>
       <c r="B1298" s="2" t="inlineStr">
         <is>
-          <t>Prajwal</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C1298" s="2" t="inlineStr">
         <is>
-          <t>Shrestha</t>
+          <t>Mouad</t>
         </is>
       </c>
       <c r="D1298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+A researcher or educator using PyTorch in academic work or training.
+An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1298" s="2" t="inlineStr"/>
@@ -25527,28 +25912,31 @@
       <c r="I1324" t="inlineStr"/>
     </row>
     <row r="1325">
-      <c r="A1325" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="A1325" s="2" t="n">
+        <v>97</v>
       </c>
       <c r="B1325" s="2" t="inlineStr">
         <is>
-          <t>Herumb</t>
+          <t>Naif</t>
         </is>
       </c>
       <c r="C1325" s="2" t="inlineStr">
         <is>
-          <t>Shandilya</t>
+          <t>Ganadily</t>
         </is>
       </c>
       <c r="D1325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Active Research utilizing PyTorch. 
+Educating Undergraduates and Organizing Workshop Computer Vision using PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1325" s="2" t="inlineStr"/>
@@ -26038,28 +26426,30 @@
       <c r="I1351" t="inlineStr"/>
     </row>
     <row r="1352">
-      <c r="A1352" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="A1352" s="2" t="n">
+        <v>93</v>
       </c>
       <c r="B1352" s="2" t="inlineStr">
         <is>
-          <t>Naif</t>
+          <t>Keita</t>
         </is>
       </c>
       <c r="C1352" s="2" t="inlineStr">
         <is>
-          <t>Ganadily</t>
+          <t>Watanabe</t>
         </is>
       </c>
       <c r="D1352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Through [awsome-distributed-training](https://github.com/aws-samples/awsome-distributed-training) repository, creating multiple distributed training samples using PyTorch on AWS.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1352" s="2" t="inlineStr"/>
@@ -26549,28 +26939,44 @@
       <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
-      <c r="A1379" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="A1379" s="2" t="n">
+        <v>90</v>
       </c>
       <c r="B1379" s="2" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Junseo</t>
         </is>
       </c>
       <c r="C1379" s="2" t="inlineStr">
         <is>
-          <t>ÜNLÜ</t>
+          <t>Ko</t>
         </is>
       </c>
       <c r="D1379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to actively engage with the community through a combination of content creation, mentoring, and event organization, especially within the Korean AI ecosystem. I will:
+  - Host regular local meetups and workshops in Korea, leveraging my existing network and reach through platforms like LinkedIn (1,200+ followers), YouTube (2,000+ subscribers), my AI newsletter (230+ subscribers), Discord, and other public channels. These events will not only include my own sessions, but also feature guest speakers from industry and academia. I will carefully select and invite presenters to share diverse PyTorch use cases across startups, research labs, and enterprise environments.
+  - Record and publish all meetup presentations to contribute to the growing body of Korean-language PyTorch educational resources. By making these talks publicly available, I aim to improve access to high-quality content for Korean learners and help broaden PyTorch’s reach beyond just in-person participants.
+  - Foster active networking and mentorship opportunities by facilitating direct interaction between speakers and attendees. Whether they are early-career researchers, engineers, or students, participants will be able to connect, ask questions, and build ongoing relationships with mentors and experts beyond myself.
+  - Continue to create educational content in Korean via my YouTube channel and newsletter, providing tutorials, deep dives, and insights into state-of-the-art PyTorch applications. This includes practical training content for both beginners and experienced users.
+  - Mentor emerging talent by sharing best practices in PyTorch-based development, and offer guidance on using PyTorch effectively for publishing scientific research — based on my experience authoring 11 SCI(E)-level papers using PyTorch.
+With my strong background in education, engineering, and community leadership, I am confident in my ability to organize impactful events, foster meaningful connections, and help the PyTorch initiative thrive in Korea and beyond.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As an AI engineer and educator, I bring strong communication skills and a proven ability to engage the community through various channels. My strengths include:
+  - Authored 11 peer-reviewed SCI(E)-level papers using PyTorch as the primary framework for research and experimentation.(https://scholar.google.com/citations?user=qt7vHIMAAAAJ&amp;hl=ko)
+  - I applied PyTorch as the core deep learning framework during my time at prominent Korean startups like PRND and Healingpaper, leveraging it for scalable image-based ML systems, model optimization, and deployment in production-grade pipelines.
+  - Publish a weekly AI-focused newsletter at https://news.kojunseo.link, currently reaching over 230 email subscribers.
+  - Operate a YouTube channel (@kojunseo) with over 2,000 subscribers, where I regularly publish educational content on PyTorch, machine learning, and software development.
+  - Have a professional LinkedIn network of 1,200+ followers (https://www.linkedin.com/in/kojunseo).
+  - Invited speaker at leading events such as the Vessl AI Conference and Teddynote Live, one of Korea’s most prominent LLM and RAG-focused channels (https://www.youtube.com/live/hEKcdsrdV8M?si=kcOiIx1YjsCQ10Ve, https://youtu.be/iZEJBOEdMEQ).
+  - https://kojunseo.link for more information.
+I am confident in my ability to promote and organize PyTorch-related events, especially within the Korean AI community. With my existing audience and media presence, I can effectively support community growth, host local events, and attract participants to PyTorch initiatives.</t>
         </is>
       </c>
       <c r="E1379" s="2" t="inlineStr"/>
@@ -27060,10 +27466,8 @@
       <c r="I1405" t="inlineStr"/>
     </row>
     <row r="1406">
-      <c r="A1406" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A1406" s="2" t="n">
+        <v>87</v>
       </c>
       <c r="B1406" s="2" t="inlineStr">
         <is>
@@ -27077,11 +27481,30 @@
       </c>
       <c r="D1406" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I would actively engage with the community by participating in discussions on platforms like GitHub, PyTorch Forums, and social media to answer questions, share insights, and encourage collaboration.
+My goal would be to make PyTorch more accessible by creating educational content such as tutorials, blog posts, and video walkthroughs that help learners at all levels.
+I plan to host workshops, webinars, and online tutorials posted on my YouTube channels, especially related to my research areas (computer vision, Tiny ML), to foster learning and support new PyTorch users and young researchers through mentorship and hands-on guidance.
+I also aim to organize small and more engaging coding challenges that inspire innovation and real-world applications of PyTorch.
+By gathering community feedback and working closely with my collaborators and students, I hope to contribute to improving documentation, tools, and future features.
+Representing PyTorch at conferences and events, and using and citing PyTorch in my talks and research seminars, I will strive to build a vibrant, collaborative, and welcoming community that empowers developers, researchers, and students around the world.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Here are a few of my services reflecting my strong presence in the community:
+Associate Editor, IEEE Transactions on Neural Networks and Learning Systems (Jan 2025-Present)
+Associate Editor, IEEE Transactions on Consumer Electronics (July 2024 - June 2026)
+Associate Editor, IEEE Transactions on Technology and Society (May 2024 - May 2026)
+Associate Editor, IEEE Future Directions Newsletter (Apr 2021 - Present)
+Area Chair - IJCNN 2025
+PC Member (ML/AI) - NeurIPS 2024, WACV 2025, IJCNN 2025, IEEE BigData 2020, CVIPPR 2024
+Member of TCs: CTSoc TC on Machine learning, Deep learning and AI in CE (MDA)
+Community Mentor in Coursera - Andrew Ng's Neural Networks course by Deeplearning.ai
+Research Mentor, Qatar University Young Scientists Center (QUYSC)
+Summer Internship Supervisor, Qatar Mobility Innovations Center (QMIC)</t>
         </is>
       </c>
       <c r="E1406" s="2" t="inlineStr"/>
@@ -27571,10 +27994,8 @@
       <c r="I1432" t="inlineStr"/>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A1433" s="2" t="n">
+        <v>83</v>
       </c>
       <c r="B1433" s="2" t="inlineStr">
         <is>
@@ -27588,11 +28009,43 @@
       </c>
       <c r="D1433" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to leverage my extensive experience in research, education, community engagement, and technical content creation to actively support and expand the PyTorch community.
+My research background includes significant use of PyTorch for deep learning projects, particularly in computer vision and vision-language modeling. With publications at conferences like ICLR and NeurIPS, I have developed practical, scalable solutions using PyTorch, and I plan to translate this expertise into accessible, impactful learning resources for the broader community.
+At Cohere Labs, I've organized and hosted over 50 sessions, demonstrating a commitment to fostering vibrant, inclusive communities. I've also delivered talks at several AI/ML conferences, focusing on practical PyTorch applications and the latest advancements in deep learning.
+Looking ahead, my goal as an ambassador is to expand community-driven events, such as workshops, webinars, and meetups, tailored to diverse skill levels—from beginners to advanced practitioners. I plan to create structured mentorship programs to guide new PyTorch users, particularly focusing on underserved communities. Additionally, I aim to enhance my content creation efforts by developing comprehensive, hands-on tutorials and blogs addressing common challenges and innovative uses of PyTorch. I also aim to create a local pytorch community in **Pakistan** that will help to organize and connect local engineers and researchers and provide them with resources and sessions to move further.
+I will also prioritize collaboration with fellow ambassadors and PyTorch developers to facilitate knowledge-sharing sessions and community-driven projects that address real-world problems.
+Relevant links:
+* Cohere Labs community sessions: [https://www.youtube.com/watch?v=FoCxiZpO2lM\&amp;t=31s](https://www.youtube.com/watch?v=FoCxiZpO2lM&amp;t=31s)
+* My articles on KDnuggets: [https://www.kdnuggets.com/author/ahmad-anis](https://www.kdnuggets.com/author/ahmad-anis)
+* My Medium blog: [https://medium.com/@ahmadanis5050](https://medium.com/@ahmadanis5050)
+* My blog on cnvrg.io: [https://cnvrg.io/author/ahmad-anis](https://cnvrg.io/author/ahmad-anis)
+* My research: [https://scholar.google.com/citations?user=58X2MYsAAAAJ\&amp;hl=en](https://scholar.google.com/citations?user=58X2MYsAAAAJ&amp;hl=en)
+* Huggingface: [huggingface.co/ahmadmustafa](https://huggingface.co/ahmadmustafa)
+In essence, my mission as a PyTorch Ambassador will be to cultivate a collaborative, inclusive community, fostering education, mentorship, and innovation in PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi, I am Ahmad, I am a Deep Learning engineer at [Roll.ai](https://roll.ai), Research Collaborator at Data Provenance Initiative at MIT Media Lab and Community Lead at Cohere Labs Community where I have hosted over 50 sessions. Here are some of my relevant links that showcases my community and volunteer work:
+- Blogs: 
+  - kdnuggets.com/author/ahmad-anis
+  - medium.com/@ahmadanis5050
+  - cnvrg.io/author/ahmad-anis
+- Community Lead at Cohere Labs, 50+ Sessions hosted at Cohere Labs Community: https://www.youtube.com/watch?v=FoCxiZpO2lM&amp;t=31s 
+- My Talks: 
+  - On the Limitations of Vision Language Models in Understanding Image Transforms (ResearchTrend.AI, 2025)
+  - "Image Generation with Diffusion Models" (AI Summit 10Pearls, April 2024)
+  - "Self Supervised Contrastive Deep Learning in Computer Vision" (GDG Cloud Islamabad, December 2023)
+  - "Semantic Search using Deep Learning" (GDG Cloud Islamabad, March 2023)
+  - "Deploying TensorFlow Models with Gradio and Hugging Face Spaces" (AI Summit 10Pearls, February 2023)
+  - "Language Guided Recognition using CLIP" (Google Cloud DevFest Islamabad, December 2022)
+  - "How Convolutional Neural Networks work" (DevFest Karachi, December 2022)
+- Research: https://scholar.google.com/citations?user=58X2MYsAAAAJ&amp;hl=en
+- Fellowship Lead: [Bytewise Fellowship NLP](https://www.bytewiseltd.com/fellowship) (2024)
+- Mentor: MESA @ [Foothill College](https://foothill.edu/sli/mesa/)</t>
         </is>
       </c>
       <c r="E1433" s="2" t="inlineStr"/>
@@ -28082,28 +28535,35 @@
       <c r="I1459" t="inlineStr"/>
     </row>
     <row r="1460">
-      <c r="A1460" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A1460" s="2" t="n">
+        <v>78</v>
       </c>
       <c r="B1460" s="2" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>Awadelrahman</t>
         </is>
       </c>
       <c r="C1460" s="2" t="inlineStr">
         <is>
-          <t>MEDRANO</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="D1460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m nominating myself for the PyTorch Ambassador program because I’ve experienced firsthand the challenges of transitioning from academic research to deploying machine learning models in production environments. As an AI Architect at REMA 1000 in Norway, one of the largest retail companies in the Nordics, I work on building and scaling AI solutions that have real-world impact.
+Throughout my career, PyTorch has been a constant companion. All my published research papers utilized PyTorch, and it remains my framework of choice (for me and my team) for developing and implementing models in industry settings. While I haven't authored formal blog posts specifically about PyTorch, I've created numerous videos and social media posts that showcase its application in real-world scenarios, particularly focusing on MLOps, model deployment, and integration with tools like MLflow and Databricks.
+I understand that being a PyTorch Ambassador is a significant commitment and responsibility. Having for more than 2 years serving as an MLflow Ambassador and a Databricks MVP, I am well-acquainted with the dedication required to support and grow a technical community. I view this opportunity as a way to consolidate my efforts in the machine learning ecosystem and to give back to the community that has supported my growth.
+My goal is to bridge the gap between research and production, helping others navigate the complexities of deploying PyTorch models in real-world applications. I am committed to sharing my experiences, mentoring aspiring practitioners, and contributing to the PyTorch community in meaningful ways.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+www.linkedin.com/in/awadelrahman
+medium.com/@awadelrahman
+https://youtube.com/@thismonthinmlflow?si=32pxt9YOguBXCa3I</t>
         </is>
       </c>
       <c r="E1460" s="2" t="inlineStr"/>
@@ -28593,28 +29053,31 @@
       <c r="I1486" t="inlineStr"/>
     </row>
     <row r="1487">
-      <c r="A1487" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="A1487" s="2" t="n">
+        <v>76</v>
       </c>
       <c r="B1487" s="2" t="inlineStr">
         <is>
-          <t>Awadelrahman</t>
+          <t>Dipesh</t>
         </is>
       </c>
       <c r="C1487" s="2" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Mahato</t>
         </is>
       </c>
       <c r="D1487" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a dedicated AI safety researcher and long-time PyTorch user, I’ve been actively sharing my journey and knowledge with the community—from training interpretable ML models to developing tutorials that simplify complex concepts. I’ve given talks at conferences on topics like differential privacy, model interpretability, and fairness—often with PyTorch at the core. I also mentor students and peers, helping them understand PyTorch from the ground up, whether through direct teaching, code walkthroughs, or contributions to open-source repos.
+If selected as an ambassador, I plan to organize hands-on workshops, community meetups, and contribute even more openly to PyTorch-based research and tools. I’ll focus on topics aligned with safety and transparency in AI—making sure newer practitioners have the guidance and support they need. I’m also excited to collaborate with other ambassadors to create high-quality content, expand multilingual resources, and make PyTorch more accessible, especially in underrepresented research communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1487" s="2" t="inlineStr"/>
@@ -29104,28 +29567,33 @@
       <c r="I1513" t="inlineStr"/>
     </row>
     <row r="1514">
-      <c r="A1514" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A1514" s="2" t="n">
+        <v>72</v>
       </c>
       <c r="B1514" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Marimuthu</t>
         </is>
       </c>
       <c r="C1514" s="2" t="inlineStr">
         <is>
-          <t>Rebaal</t>
+          <t>Kalimuthu</t>
         </is>
       </c>
       <c r="D1514" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I plan to host in-person hands-on events, specifically tutorials, introducing (Bachelor's, Master's, PhD) students to PyTorch and its ecosystem of frameworks and libraries. Since I'm affiliated with the university and work regularly from the university office, the organizational aspects are straightforward. 
+I envision creating a local PyTorch enthusiasts group at Uni Stuttgart and organize regular events. Further, upon acceptance, a relevant webpage will be set up to disseminate the created learning materials (e.g., Marimo notebooks) and document the events. 
+Moreover, since my current research work is mainly in the AI4Science domain, the aim is also to introduce PyTorch programming to chemists and physicists who are unfamiliar with PyTorch thinking and tensor computing.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have extensive tensor computing (NumPy, PyTorch, CuPy, JAX) experience and contributed several answers on StackOverflow (https://stackoverflow.com/users/2956066/kmario23).
+Moreover, I maintain an open-source benchmark codebase (https://github.com/pdebench/PDEBench) for scientific machine learning and have contributed to other relevant frameworks.</t>
         </is>
       </c>
       <c r="E1514" s="2" t="inlineStr"/>
@@ -29615,10 +30083,8 @@
       <c r="I1540" t="inlineStr"/>
     </row>
     <row r="1541">
-      <c r="A1541" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="A1541" s="2" t="n">
+        <v>68</v>
       </c>
       <c r="B1541" s="2" t="inlineStr">
         <is>
@@ -29632,11 +30098,20 @@
       </c>
       <c r="D1541" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to help the PyTorch community grow by organizing regular events both online and in-person. I'll host workshops and meetups to introduce new learners to PyTorch, answer questions, and encourage people to share their experiences. Additionally, since we organize PyCon Somalia every year, I'll include hands-on PyTorch workshops in the event, giving participants practical experience.
+I will also actively contribute to the AISomalia Summit, where PyTorch-focused sessions can further engage participants and help build their skills. 
+Lastly, I will mentor students and other community members interested in artificial intelligence, guiding them to start and advance their journey with PyTorch. By leveraging these events and my community connections, I aim to inspire more people to become active users and contributors to PyTorch. I'll connecting with my existing networks like PyCon Somalia, OSCA, and AISomalia, I'll spread awareness about PyTorch and highlight success stories from our community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://github.com/sidowxyz
+https://www.linkedin.com/in/sidowxyz/
+https://aisomalia.ai/team/
+https://githubcampus.expert/sidowxyz</t>
         </is>
       </c>
       <c r="E1541" s="2" t="inlineStr"/>
@@ -30126,28 +30601,35 @@
       <c r="I1567" t="inlineStr"/>
     </row>
     <row r="1568">
-      <c r="A1568" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A1568" s="2" t="n">
+        <v>66</v>
       </c>
       <c r="B1568" s="2" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Lucky</t>
         </is>
       </c>
       <c r="C1568" s="2" t="inlineStr">
         <is>
-          <t>Bhattarai</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="D1568" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone actively involved in Nigeria’s vibrant tech ecosystem,I envision my role as a PyTorch Ambassador as a bridge, connecting the global PyTorch community with the untapped potential of emerging developers in Africa. I have spent the last few years building communities, mentoring students and professionals, and organizing events that make technology more approachable, especially for those just getting started.
+Drawing from my experiences as a GitHub Campus Expert and open-source Community Manager, I  have witnessed firsthand the transformative power of accessible education and mentorship. In my local environment and beyond, I have organized workshops, hackathons, and study groups that demystify complex technologies for students and early-career professionals. These events don't just teach, they inspire and empower community members to learn, improve, and acquire more technical skills in various techn stacks like AI/ML, Software development and Engineering etc.
+I plan to organize regular PyTorch meetups, offer mentorship to newcomers, and collaborate with other ambassadors to bring more visibility to the amazing work coming out of our region and get more mentors for my community in the field of AI/ML. Through blog posts, videos, and community-driven projects, I will make sure PyTorch feels accessible and relevant, no matter where someone is starting from, either beginner, intermediate, or professional in Machine learning, I will create contents tailored to their skill level.
+More than anything, I want to help build a supportive and inclusive pytorch community, one that empowers people, sparks ideas, and encourages community to contribute back to the larger AI/ML community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+While I am not yet a PyTorch expert or an active contributor to the framework, I see this opportunity as a powerful step forward, not just for me, but for my entire community. In many parts of Nigeria and across Africa, access to hands-on support and mentorship in artificial intelligence and machine learning is still very limited. I want to change that.
+Becoming a PyTorch Ambassador would give me the chance to learn more deeply, grow my skills, and bring that knowledge home in ways that make a real difference. I want to be the person who sparks that first “aha” moment for a student who is just hearing about machine learning for the first time. I want to show them that this technology is not just for Silicon Valley, it is for us, too.
+This program would give me the tools, network, and platform to advocate for PyTorch meaningfully, build a stronger AI community in my region and beyond,  creating pathways for others to explore and contribute to this field. I am passionate, willing to learn, and deeply committed to making sure no one is left behind as this technology shapes the future..</t>
         </is>
       </c>
       <c r="E1568" s="2" t="inlineStr"/>
@@ -30637,28 +31119,39 @@
       <c r="I1594" t="inlineStr"/>
     </row>
     <row r="1595">
-      <c r="A1595" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A1595" s="2" t="n">
+        <v>55</v>
       </c>
       <c r="B1595" s="2" t="inlineStr">
         <is>
-          <t>Debashish</t>
+          <t>Manith</t>
         </is>
       </c>
       <c r="C1595" s="2" t="inlineStr">
         <is>
-          <t>Chakraborty</t>
+          <t>Marapperuma</t>
         </is>
       </c>
       <c r="D1595" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a Computer Engineering undergraduate passionate about deep learning frameworks, I would leverage my technical background and enthusiasm to make meaningful contributions as a PyTorch Ambassador. My academic foundation in computer architecture, algorithms, and systems programming provides me with a unique perspective on PyTorch's capabilities and implementation. I would engage with the community by organizing bi-weekly study groups on campus where fellow students could collaborate on PyTorch projects, troubleshoot implementation challenges, and explore the latest framework updates. These sessions would create a supportive environment for newcomers while allowing experienced users to deepen their knowledge through teaching others.
+I plan to develop a series of hands-on workshops specifically designed for undergraduate engineering students, bridging the gap between theoretical classroom knowledge and practical PyTorch applications. These workshops would focus on applying PyTorch to engineering problems, such as computer vision for robotics applications and signal processing with neural networks. Additionally, I would create and maintain a repository of annotated implementations that demonstrate how to transition from engineering mathematics to PyTorch code, helping my peers overcome the initial learning curve.
+To expand PyTorch's reach within the computer engineering community, I would collaborate with student chapters of professional organizations like IEEE to host joint events that showcase PyTorch's capabilities for embedded systems and edge computing applications. I would also establish a mentorship program connecting undergraduate students with graduate researchers and industry professionals using PyTorch, creating pathways for deeper involvement in the ecosystem. Through these initiatives, I would help cultivate a new generation of PyTorch developers who bring an engineering perspective to machine learning development, ultimately strengthening and diversifying the broader PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+CV: https://drive.google.com/file/d/15M6d9FsgUnga19DvuuFTSrW9UFd_5w2U/view?usp=sharing
+LinkedIn: https://www.linkedin.com/in/manithj/
+Personal Web: https://manith.me/
+As a Computer Engineering undergraduate at General Sir John Kotelawala Defence University in Sri Lanka, I would bring my unique perspective and technical background to the PyTorch Ambassador role. My academic foundation in computer engineering, combined with my experience as Volunteer Affairs Manager at IEEE, has equipped me with both the technical knowledge and community organizing skills needed to make meaningful contributions to the PyTorch ecosystem.
+Drawing on my programming experience with Python and my repositories like ML-Notes-by-Manith, I would create localized educational content tailored specifically for Sri Lankan students and developers. I plan to organize bi-weekly PyTorch study groups on the KDU campus, creating an environment where fellow engineering students can collaborate on projects, troubleshoot implementation challenges, and explore the latest framework features together.
+Leveraging my role at IEEE, I would establish connections between the PyTorch community and the broader engineering community in Sri Lanka, organizing joint workshops and hackathons that showcase PyTorch's applications in fields relevant to local industries and research priorities. These events would help bridge the gap between theoretical classroom knowledge and practical implementation, focusing particularly on how PyTorch can be applied to agricultural technology solutions – building on my experience with projects like the R-Agro-Harvest-Predictor.
+I would also develop a series of Flask-based web applications that demonstrate how PyTorch models can be deployed in production environments, expanding on my Flask_A-Z tutorial repository to create accessible examples for other undergraduates. Through my personal website (manith.me) and GitHub presence, I would document these implementation journeys, creating a resource hub specifically designed for computer engineering students transitioning into machine learning development.
+By focusing on these initiatives, I aim to foster a thriving PyTorch community within Sri Lanka's academic institutions, helping to diversify the global PyTorch ecosystem while creating pathways for underrepresented developers to contribute meaningfully to the framework's growth and evolution.</t>
         </is>
       </c>
       <c r="E1595" s="2" t="inlineStr"/>
@@ -31148,28 +31641,30 @@
       <c r="I1621" t="inlineStr"/>
     </row>
     <row r="1622">
-      <c r="A1622" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A1622" s="2" t="n">
+        <v>53</v>
       </c>
       <c r="B1622" s="2" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="C1622" s="2" t="inlineStr">
         <is>
-          <t>Gbada</t>
+          <t>Krzywda</t>
         </is>
       </c>
       <c r="D1622" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee plans to actively contribute to the PyTorch community by creating educational materials and open-access courses focusing on various PyTorch-related frameworks, such as PyTorch Geometric, BoTorch, and EvoTorch. These resources will be developed primarily for students at AGH University of Krakow and integrated into regular academic courses to help young researchers gain hands-on experience with advanced AI tools. Additionally, the nominee intends to organize local workshops and training sessions at AGH, fostering a vibrant local PyTorch community. Through mentoring, knowledge-sharing, and educational outreach, the nominee will support the growth of the PyTorch initiative and make it more accessible to the academic and research community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1622" s="2" t="inlineStr"/>
@@ -31659,28 +32154,30 @@
       <c r="I1648" t="inlineStr"/>
     </row>
     <row r="1649">
-      <c r="A1649" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A1649" s="2" t="n">
+        <v>49</v>
       </c>
       <c r="B1649" s="2" t="inlineStr">
         <is>
-          <t>Manith</t>
+          <t>Mazen</t>
         </is>
       </c>
       <c r="C1649" s="2" t="inlineStr">
         <is>
-          <t>Marapperuma</t>
+          <t>Alotaibi</t>
         </is>
       </c>
       <c r="D1649" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I want share more educational content and host local PyTorch Meetups in Riyadh, Saudi Arabia for AI researchers and engineers
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have been mainly contributing to PyTorch Discord Community for the past 3 years by answering questions, help others to contribute to PyTorch repos, and share educational resources. Because of my contributions, I have been awarded PyTorch Ambassador Award 2023</t>
         </is>
       </c>
       <c r="E1649" s="2" t="inlineStr"/>
@@ -32170,28 +32667,30 @@
       <c r="I1675" t="inlineStr"/>
     </row>
     <row r="1676">
-      <c r="A1676" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A1676" s="2" t="n">
+        <v>48</v>
       </c>
       <c r="B1676" s="2" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C1676" s="2" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Goheen</t>
         </is>
       </c>
       <c r="D1676" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will help to organize events in Southeast Florida – spanning from Orlando to Miami, contribute technical content, and continue contributing to PyTorch repositories and Discord communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a prior Developer Advocate and have contributed to several ecosystem repositories.</t>
         </is>
       </c>
       <c r="E1676" s="2" t="inlineStr"/>
@@ -32681,28 +33180,35 @@
       <c r="I1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A1703" s="2" t="n">
+        <v>43</v>
       </c>
       <c r="B1703" s="2" t="inlineStr">
         <is>
-          <t>Rawanna</t>
+          <t>Yadnyesh</t>
         </is>
       </c>
       <c r="C1703" s="2" t="inlineStr">
         <is>
-          <t>Chathuranga</t>
+          <t>Chakane</t>
         </is>
       </c>
       <c r="D1703" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m a student researcher in machine learning, passionate about building a strong community of researchers and supporting students in contributing to ML research. I currently have an audience of 20K followers on X—including researchers, developers, and students from around the world - which has helped me share my projects and research widely.
+The PyTorch community is an incredible platform to further this mission. As a PyTorch Ambassador, I aim to organize sessions on core research areas such as Diffusion Models, RLHF, Discovery-Driven AI Systems, Foundational Reasoning Models, and Robotics Research. I also plan to mentor developers through deep dives into "PyTorch Internals" - not just to help them use PyTorch effectively, but to empower them to understand its inner workings and contribute meaningfully to the ecosystem.
+Additionally, I want to help developers and students deepen their understanding of core ML systems and contribute to areas like inference optimization, distributed training, and post-training techniques. I believe these are essential skills for modern ML practitioners. The PyTorch community, with its wealth of experienced developers and researchers, provides the perfect environment to share and grow this knowledge collaboratively.
+With my experience as an ML student researcher and developer, I’m committed to helping the PyTorch ecosystem grow -engaging with developers and researchers, and supporting students in learning, contributing to open source, and driving impactful research through the PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My X Profile: https://x.com/novasarc01
+My LinkedIn : https://www.linkedin.com/in/yadnyesh-chakane-472260202/
+My Blog : https://ydnyshhh.github.io/posts/go_with_the_flow/</t>
         </is>
       </c>
       <c r="E1703" s="2" t="inlineStr"/>
@@ -33192,28 +33698,46 @@
       <c r="I1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A1730" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="B1730" s="2" t="inlineStr">
         <is>
-          <t>Yadnyesh</t>
+          <t>Krishna</t>
         </is>
       </c>
       <c r="C1730" s="2" t="inlineStr">
         <is>
-          <t>Chakane</t>
+          <t>Kalyan</t>
         </is>
       </c>
       <c r="D1730" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a nominee, I am deeply committed to contributing to the PyTorch community through consistent engagement, knowledge-sharing, and active participation across various platforms.
+Social Media Engagement:
+I will regularly share updates about new PyTorch releases, highlighting key features and improvements. I also plan to create short, engaging video tutorials that demonstrate how to use new PyTorch features effectively. This helps make the content accessible and actionable for developers of all levels.
+Meetups and Events:
+I aim to host and participate in local and virtual meetups where I will present interactive demos and real-world applications built using PyTorch. These sessions will not only showcase the flexibility of the framework but also inspire others to build and share their own projects.
+Blogging and Knowledge Sharing:
+I will publish blogs covering a range of topics including the PyTorch ecosystem, best practices, lessons learned from real projects, and detailed technical walkthroughs. These blogs will serve as a resource for developers to deepen their understanding and avoid common pitfalls.
+Open Source and Cross-Community Collaboration:
+I am actively involved with the LAION community where we use PyTorch extensively for large-scale machine learning and open-source research. I plan to share insights and case studies from this work, effectively bridging the PyTorch community with other open-source initiatives. This cross-pollination will bring visibility to diverse use cases and encourage more contributors to get involved.
+Mentorship:
+I am passionate about helping new contributors find their footing in the PyTorch ecosystem. I will offer mentorship through community forums, open office hours, and 1:1 sessions where needed. The goal is to make the community welcoming and accessible for everyone, from beginners to advanced users.
+By combining content creation, event hosting, mentorship, and cross-community collaboration, I hope to play a key role in helping the PyTorch initiative thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My Pull Requests
+[PyTorch Audio](https://github.com/pytorch/audio/pulls?q=is%3Apr+is%3Aclosed+author%3Akrishnakalyan3)
+[PyTorch Lightning](https://github.com/Lightning-AI/pytorch-lightning/pulls?q=is%3Apr+author%3Akrishnakalyan3+is%3Aclosed)
+[PyTorch](https://github.com/pytorch/pytorch/pulls?q=is%3Apr+author%3Akrishnakalyan3+is%3Aclosed)
+[PyTorch Benchmark](https://github.com/pytorch/benchmark/pull/17)
+[Laion](https://github.com/LAION-AI/audio-dataset/pulls?q=is%3Apr+is%3Aclosed+author%3Akrishnakalyan3)</t>
         </is>
       </c>
       <c r="E1730" s="2" t="inlineStr"/>
@@ -33703,28 +34227,31 @@
       <c r="I1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A1757" s="2" t="n">
+        <v>37</v>
       </c>
       <c r="B1757" s="2" t="inlineStr">
         <is>
-          <t>Wajahat</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C1757" s="2" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Bharadwaj</t>
         </is>
       </c>
       <c r="D1757" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee would likely engage by participating, creating content, and possibly coding. They'd help PyTorch thrive by promoting it and connecting people. For events, mentoring, or sharing knowledge, think meetups, tutorials, or guiding newcomers.
+Still need a tiny bit more about this specific person to make it truly impactful and short! What's one key thing that stands out about them?
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1757" s="2" t="inlineStr"/>
@@ -34214,28 +34741,33 @@
       <c r="I1783" t="inlineStr"/>
     </row>
     <row r="1784">
-      <c r="A1784" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="A1784" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="B1784" s="2" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>shashanka</t>
         </is>
       </c>
       <c r="C1784" s="2" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>br</t>
         </is>
       </c>
       <c r="D1784" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an Ambassador, I plan to actively contribute to the PyTorch community in a few simple ways:
+First, I'll lead my local PyTorch community. This means hosting regular meetups or online events, probably one every few months, to bring people together. I'll also jump into discussions on PyTorch's Slack and forums, helping out where I can and sharing what I learn from our local group.
+Second, I'm committed to learning and growing. I'll go through the Ambassador training and stay updated on all the new PyTorch features. My goal is to become a go-to person for PyTorch, helping others learn and solve their problems.
+Finally, I'll share what I know. I'll create content like simple tutorials or blog posts to help more people understand PyTorch. I'll also promote great work from our community and share important PyTorch updates on my social media.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1784" s="2" t="inlineStr"/>
@@ -34724,1030 +35256,8 @@
       </c>
       <c r="I1810" t="inlineStr"/>
     </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B1811" s="2" t="inlineStr">
-        <is>
-          <t>Ojas</t>
-        </is>
-      </c>
-      <c r="C1811" s="2" t="inlineStr">
-        <is>
-          <t>Patil</t>
-        </is>
-      </c>
-      <c r="D1811" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1811" s="2" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1811" t="inlineStr"/>
-    </row>
-    <row r="1812">
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1812" t="inlineStr"/>
-    </row>
-    <row r="1813">
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1813" t="inlineStr"/>
-    </row>
-    <row r="1814">
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1814" t="inlineStr"/>
-    </row>
-    <row r="1815">
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1815" t="inlineStr"/>
-    </row>
-    <row r="1816">
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1816" t="inlineStr"/>
-    </row>
-    <row r="1817">
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1817" t="inlineStr"/>
-    </row>
-    <row r="1818">
-      <c r="F1818" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1818" t="inlineStr"/>
-    </row>
-    <row r="1819">
-      <c r="F1819" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1819" t="inlineStr"/>
-    </row>
-    <row r="1820">
-      <c r="F1820" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1820" t="inlineStr"/>
-    </row>
-    <row r="1821">
-      <c r="F1821" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1821" t="inlineStr"/>
-    </row>
-    <row r="1822">
-      <c r="F1822" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1822" t="inlineStr"/>
-    </row>
-    <row r="1823">
-      <c r="F1823" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1823" t="inlineStr"/>
-    </row>
-    <row r="1824">
-      <c r="F1824" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1824" t="inlineStr"/>
-    </row>
-    <row r="1825">
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1825" t="inlineStr"/>
-    </row>
-    <row r="1826">
-      <c r="F1826" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1826" t="inlineStr"/>
-    </row>
-    <row r="1827">
-      <c r="F1827" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1827" t="inlineStr"/>
-    </row>
-    <row r="1828">
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1829" t="inlineStr"/>
-    </row>
-    <row r="1830">
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1830" t="inlineStr"/>
-    </row>
-    <row r="1831">
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1831" t="inlineStr"/>
-    </row>
-    <row r="1832">
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1832" t="inlineStr"/>
-    </row>
-    <row r="1833">
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1833" t="inlineStr"/>
-    </row>
-    <row r="1834">
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1834" t="inlineStr"/>
-    </row>
-    <row r="1835">
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1835" t="inlineStr"/>
-    </row>
-    <row r="1836">
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1836" t="inlineStr"/>
-    </row>
-    <row r="1837">
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1837" t="inlineStr"/>
-    </row>
-    <row r="1838">
-      <c r="A1838" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B1838" s="2" t="inlineStr">
-        <is>
-          <t>Irakli</t>
-        </is>
-      </c>
-      <c r="C1838" s="2" t="inlineStr">
-        <is>
-          <t>Salia</t>
-        </is>
-      </c>
-      <c r="D1838" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1838" s="2" t="inlineStr"/>
-      <c r="F1838" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1838" t="inlineStr"/>
-    </row>
-    <row r="1839">
-      <c r="F1839" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1839" t="inlineStr"/>
-    </row>
-    <row r="1840">
-      <c r="F1840" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1840" t="inlineStr"/>
-    </row>
-    <row r="1841">
-      <c r="F1841" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1841" t="inlineStr"/>
-    </row>
-    <row r="1842">
-      <c r="F1842" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1842" t="inlineStr"/>
-    </row>
-    <row r="1843">
-      <c r="F1843" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1843" t="inlineStr"/>
-    </row>
-    <row r="1844">
-      <c r="F1844" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1844" t="inlineStr"/>
-    </row>
-    <row r="1845">
-      <c r="F1845" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1845" t="inlineStr"/>
-    </row>
-    <row r="1846">
-      <c r="F1846" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1846" t="inlineStr"/>
-    </row>
-    <row r="1847">
-      <c r="F1847" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1847" t="inlineStr"/>
-    </row>
-    <row r="1848">
-      <c r="F1848" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1848" t="inlineStr"/>
-    </row>
-    <row r="1849">
-      <c r="F1849" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1849" t="inlineStr"/>
-    </row>
-    <row r="1850">
-      <c r="F1850" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1850" t="inlineStr"/>
-    </row>
-    <row r="1851">
-      <c r="F1851" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1851" t="inlineStr"/>
-    </row>
-    <row r="1852">
-      <c r="F1852" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1852" t="inlineStr"/>
-    </row>
-    <row r="1853">
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1853" t="inlineStr"/>
-    </row>
-    <row r="1854">
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1854" t="inlineStr"/>
-    </row>
-    <row r="1855">
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1855" t="inlineStr"/>
-    </row>
-    <row r="1856">
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1856" t="inlineStr"/>
-    </row>
-    <row r="1857">
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1857" t="inlineStr"/>
-    </row>
-    <row r="1858">
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1858" t="inlineStr"/>
-    </row>
-    <row r="1859">
-      <c r="F1859" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1859" t="inlineStr"/>
-    </row>
-    <row r="1860">
-      <c r="F1860" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1860" t="inlineStr"/>
-    </row>
-    <row r="1861">
-      <c r="F1861" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1861" t="inlineStr"/>
-    </row>
-    <row r="1862">
-      <c r="F1862" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1862" t="inlineStr"/>
-    </row>
-    <row r="1863">
-      <c r="F1863" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1863" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1863" t="inlineStr"/>
-    </row>
-    <row r="1864">
-      <c r="F1864" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1864" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1864" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="345">
+  <mergeCells count="335">
     <mergeCell ref="B1703:B1729"/>
     <mergeCell ref="A974:A1000"/>
     <mergeCell ref="E1109:E1135"/>
@@ -35767,9 +35277,7 @@
     <mergeCell ref="C1325:C1351"/>
     <mergeCell ref="E1325:E1351"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B1838:B1864"/>
     <mergeCell ref="D2:D28"/>
-    <mergeCell ref="D1838:D1864"/>
     <mergeCell ref="A326:A352"/>
     <mergeCell ref="B569:B595"/>
     <mergeCell ref="D569:D595"/>
@@ -35810,7 +35318,6 @@
     <mergeCell ref="D488:D514"/>
     <mergeCell ref="A785:A811"/>
     <mergeCell ref="C785:C811"/>
-    <mergeCell ref="C1811:C1837"/>
     <mergeCell ref="D1460:D1486"/>
     <mergeCell ref="B1622:B1648"/>
     <mergeCell ref="D1622:D1648"/>
@@ -35891,7 +35398,6 @@
     <mergeCell ref="B1406:B1432"/>
     <mergeCell ref="B1325:B1351"/>
     <mergeCell ref="D1136:D1162"/>
-    <mergeCell ref="E1811:E1837"/>
     <mergeCell ref="D1568:D1594"/>
     <mergeCell ref="E1460:E1486"/>
     <mergeCell ref="B1541:B1567"/>
@@ -35918,7 +35424,6 @@
     <mergeCell ref="C164:C190"/>
     <mergeCell ref="D1055:D1081"/>
     <mergeCell ref="E947:E973"/>
-    <mergeCell ref="A1838:A1864"/>
     <mergeCell ref="C1784:C1810"/>
     <mergeCell ref="E1514:E1540"/>
     <mergeCell ref="A1352:A1378"/>
@@ -36048,8 +35553,6 @@
     <mergeCell ref="D245:D271"/>
     <mergeCell ref="A515:A541"/>
     <mergeCell ref="D1271:D1297"/>
-    <mergeCell ref="B1811:B1837"/>
-    <mergeCell ref="D1811:D1837"/>
     <mergeCell ref="B1379:B1405"/>
     <mergeCell ref="D1379:D1405"/>
     <mergeCell ref="A1163:A1189"/>
@@ -36070,9 +35573,7 @@
     <mergeCell ref="D1325:D1351"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="C2:C28"/>
-    <mergeCell ref="C1838:C1864"/>
     <mergeCell ref="E2:E28"/>
-    <mergeCell ref="E1838:E1864"/>
     <mergeCell ref="B947:B973"/>
     <mergeCell ref="D947:D973"/>
     <mergeCell ref="C1622:C1648"/>
@@ -36089,13 +35590,12 @@
     <mergeCell ref="C218:C244"/>
     <mergeCell ref="A758:A784"/>
     <mergeCell ref="B1136:B1162"/>
-    <mergeCell ref="A1811:A1837"/>
     <mergeCell ref="E1001:E1027"/>
     <mergeCell ref="C1541:C1567"/>
     <mergeCell ref="E1541:E1567"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810 I1811 I1812 I1813 I1814 I1815 I1816 I1817 I1818 I1819 I1820 I1821 I1822 I1823 I1824 I1825 I1826 I1827 I1828 I1829 I1830 I1831 I1832 I1833 I1834 I1835 I1836 I1837 I1838 I1839 I1840 I1841 I1842 I1843 I1844 I1845 I1846 I1847 I1848 I1849 I1850 I1851 I1852 I1853 I1854 I1855 I1856 I1857 I1858 I1859 I1860 I1861 I1862 I1863 I1864" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36109,7 +35609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36185,19 +35685,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
+      <c r="A2" t="n">
+        <v>299</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karla</t>
+          <t>Anish</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mauricio</t>
+          <t>Thapaliya</t>
         </is>
       </c>
       <c r="D2">
@@ -36242,19 +35740,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
+      <c r="A3" t="n">
+        <v>293</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Nour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Arroyo</t>
+          <t>Majdoub</t>
         </is>
       </c>
       <c r="D3">
@@ -36299,19 +35795,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
+      <c r="A4" t="n">
+        <v>288</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anurag</t>
+          <t>Abdou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bihani</t>
+          <t>DIOP</t>
         </is>
       </c>
       <c r="D4">
@@ -36356,19 +35850,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
+      <c r="A5" t="n">
+        <v>286</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aayusha</t>
+          <t>Orestis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adhikari</t>
+          <t>Makris</t>
         </is>
       </c>
       <c r="D5">
@@ -36413,19 +35905,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
+      <c r="A6" t="n">
+        <v>272</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABDULSALAM</t>
+          <t>Parichay</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BANDE</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D6">
@@ -36470,19 +35960,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
+      <c r="A7" t="n">
+        <v>269</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Assoc.</t>
+          <t>Giorgio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cinar</t>
+          <t>Magno</t>
         </is>
       </c>
       <c r="D7">
@@ -36527,19 +36015,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
+      <c r="A8" t="n">
+        <v>264</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Naeem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Moya-Sánchez</t>
+          <t>Khoshnevis</t>
         </is>
       </c>
       <c r="D8">
@@ -36584,19 +36070,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
+      <c r="A9" t="n">
+        <v>263</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Navarro</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D9">
@@ -36641,19 +36125,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+      <c r="A10" t="n">
+        <v>262</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hussain</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salih</t>
+          <t>Uzoechi</t>
         </is>
       </c>
       <c r="D10">
@@ -36698,19 +36180,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
+      <c r="A11" t="n">
+        <v>258</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sahdev</t>
+          <t>Hussain</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zala</t>
+          <t>Salih</t>
         </is>
       </c>
       <c r="D11">
@@ -36755,19 +36235,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
+      <c r="A12" t="n">
+        <v>253</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nimisha</t>
+          <t>Sahdev</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sukhwani</t>
+          <t>Zala</t>
         </is>
       </c>
       <c r="D12">
@@ -36812,19 +36290,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
+      <c r="A13" t="n">
+        <v>243</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Nura</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Sufiyanu</t>
         </is>
       </c>
       <c r="D13">
@@ -36869,10 +36345,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
+      <c r="A14" t="n">
+        <v>241</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -36926,19 +36400,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
+      <c r="A15" t="n">
+        <v>240</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wachiou</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BOURAIMA</t>
+          <t>Lam</t>
         </is>
       </c>
       <c r="D15">
@@ -36983,19 +36455,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
+      <c r="A16" t="n">
+        <v>235</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Najib</t>
+          <t>Ismail</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chowdhury</t>
+          <t>Feranmi</t>
         </is>
       </c>
       <c r="D16">
@@ -37040,19 +36510,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
+      <c r="A17" t="n">
+        <v>232</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Talib</t>
+          <t>Najib</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sayyed</t>
+          <t>Chowdhury</t>
         </is>
       </c>
       <c r="D17">
@@ -37097,21 +36565,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
+      <c r="A18" t="n">
+        <v>228</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hyogeun</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Oh</t>
-        </is>
-      </c>
+          <t>PrettyFave</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18">
         <f>SUMPRODUCT(--('Review Sheet'!I434:I435="Yes"))</f>
         <v/>
@@ -37154,19 +36616,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
+      <c r="A19" t="n">
+        <v>224</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shrutakeerti</t>
+          <t>Pacifique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Datta</t>
+          <t>Mugisho</t>
         </is>
       </c>
       <c r="D19">
@@ -37211,19 +36671,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
+      <c r="A20" t="n">
+        <v>217</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Menan</t>
+          <t>Saagara</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Velayuthan</t>
+          <t>Baiju</t>
         </is>
       </c>
       <c r="D20">
@@ -37268,19 +36726,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="A21" t="n">
+        <v>216</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nurulla</t>
+          <t>Menan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Matyakubov</t>
+          <t>Velayuthan</t>
         </is>
       </c>
       <c r="D21">
@@ -37325,19 +36781,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
+      <c r="A22" t="n">
+        <v>213</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ed</t>
+          <t>Mukhammad</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Rafsanjani</t>
         </is>
       </c>
       <c r="D22">
@@ -37382,19 +36836,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="A23" t="n">
+        <v>210</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Nurulla</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Seng</t>
+          <t>Matyakubov</t>
         </is>
       </c>
       <c r="D23">
@@ -37439,19 +36891,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
+      <c r="A24" t="n">
+        <v>203</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kalina</t>
+          <t>Kunal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Boshnakova</t>
+          <t>Mishra</t>
         </is>
       </c>
       <c r="D24">
@@ -37496,10 +36946,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
+      <c r="A25" t="n">
+        <v>199</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -37553,10 +37001,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
+      <c r="A26" t="n">
+        <v>195</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -37610,10 +37056,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
+      <c r="A27" t="n">
+        <v>189</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -37667,19 +37111,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
+      <c r="A28" t="n">
+        <v>184</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gaurav</t>
+          <t>Sumantro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sarkar</t>
+          <t>Mukherjee</t>
         </is>
       </c>
       <c r="D28">
@@ -37724,19 +37166,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
+      <c r="A29" t="n">
+        <v>173</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Efe</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Güler</t>
+          <t>Coma</t>
         </is>
       </c>
       <c r="D29">
@@ -37781,19 +37221,17 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
+      <c r="A30" t="n">
+        <v>171</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Osman</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sesay</t>
+          <t>RAHMAN</t>
         </is>
       </c>
       <c r="D30">
@@ -37838,19 +37276,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
+      <c r="A31" t="n">
+        <v>168</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mitzuko</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Callañaupa</t>
+          <t>singh</t>
         </is>
       </c>
       <c r="D31">
@@ -37895,19 +37331,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
+      <c r="A32" t="n">
+        <v>165</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>singh</t>
+          <t>Watt</t>
         </is>
       </c>
       <c r="D32">
@@ -37952,19 +37386,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="A33" t="n">
+        <v>162</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Mirza</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Abbas</t>
         </is>
       </c>
       <c r="D33">
@@ -38009,19 +37441,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
+      <c r="A34" t="n">
+        <v>158</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jiho</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Tanvir</t>
         </is>
       </c>
       <c r="D34">
@@ -38066,19 +37496,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="A35" t="n">
+        <v>152</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Meetish</t>
+          <t>Zesheng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Zong</t>
         </is>
       </c>
       <c r="D35">
@@ -38123,19 +37551,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
+      <c r="A36" t="n">
+        <v>149</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>TALMEEZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mir</t>
+          <t>FUAAD</t>
         </is>
       </c>
       <c r="D36">
@@ -38180,19 +37606,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
+      <c r="A37" t="n">
+        <v>144</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TALMEEZ</t>
+          <t>Bassey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FUAAD</t>
+          <t>Ene</t>
         </is>
       </c>
       <c r="D37">
@@ -38237,19 +37661,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
+      <c r="A38" t="n">
+        <v>142</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAMWO</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VALERE</t>
+          <t>Gong</t>
         </is>
       </c>
       <c r="D38">
@@ -38294,19 +37716,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+      <c r="A39" t="n">
+        <v>136</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bassey</t>
+          <t>Omer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>Toqeer</t>
         </is>
       </c>
       <c r="D39">
@@ -38351,19 +37771,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
+      <c r="A40" t="n">
+        <v>134</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Davy</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Amin</t>
         </is>
       </c>
       <c r="D40">
@@ -38408,19 +37826,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+      <c r="A41" t="n">
+        <v>129</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chan</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41">
@@ -38465,19 +37881,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
+      <c r="A42" t="n">
+        <v>124</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aakash</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rana</t>
+          <t>AbdulRazek</t>
         </is>
       </c>
       <c r="D42">
@@ -38522,19 +37936,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
+      <c r="A43" t="n">
+        <v>123</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Karn</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Watcharasupat</t>
         </is>
       </c>
       <c r="D43">
@@ -38579,19 +37991,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
+      <c r="A44" t="n">
+        <v>121</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Emre</t>
+          <t>Ruchi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kurtoglu</t>
+          <t>Pakhle</t>
         </is>
       </c>
       <c r="D44">
@@ -38636,19 +38046,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
+      <c r="A45" t="n">
+        <v>118</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ruchi</t>
+          <t>Srishti</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pakhle</t>
+          <t>Gureja</t>
         </is>
       </c>
       <c r="D45">
@@ -38693,19 +38101,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
+      <c r="A46" t="n">
+        <v>113</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Saroj</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fadhili</t>
+          <t>Dahal</t>
         </is>
       </c>
       <c r="D46">
@@ -38750,21 +38156,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="A47" t="n">
+        <v>111</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vash</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Puno</t>
-        </is>
-      </c>
+          <t>samman</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47">
         <f>SUMPRODUCT(--('Review Sheet'!I1217:I1218="Yes"))</f>
         <v/>
@@ -38807,21 +38207,15 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A48" t="n">
+        <v>107</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Muhammad</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Shaukat</t>
-        </is>
-      </c>
+          <t>Argo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48">
         <f>SUMPRODUCT(--('Review Sheet'!I1244:I1245="Yes"))</f>
         <v/>
@@ -38864,19 +38258,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="A49" t="n">
+        <v>104</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Akaash</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouad</t>
+          <t>Tripathi</t>
         </is>
       </c>
       <c r="D49">
@@ -38921,19 +38313,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="A50" t="n">
+        <v>101</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Prajwal</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shrestha</t>
+          <t>Mouad</t>
         </is>
       </c>
       <c r="D50">
@@ -38978,19 +38368,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="A51" t="n">
+        <v>97</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Herumb</t>
+          <t>Naif</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shandilya</t>
+          <t>Ganadily</t>
         </is>
       </c>
       <c r="D51">
@@ -39035,19 +38423,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="A52" t="n">
+        <v>93</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naif</t>
+          <t>Keita</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ganadily</t>
+          <t>Watanabe</t>
         </is>
       </c>
       <c r="D52">
@@ -39092,19 +38478,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="A53" t="n">
+        <v>90</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Junseo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ÜNLÜ</t>
+          <t>Ko</t>
         </is>
       </c>
       <c r="D53">
@@ -39149,10 +38533,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A54" t="n">
+        <v>87</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -39206,10 +38588,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A55" t="n">
+        <v>83</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -39263,19 +38643,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A56" t="n">
+        <v>78</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>Awadelrahman</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MEDRANO</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="D56">
@@ -39320,19 +38698,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="A57" t="n">
+        <v>76</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Awadelrahman</t>
+          <t>Dipesh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Mahato</t>
         </is>
       </c>
       <c r="D57">
@@ -39377,19 +38753,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A58" t="n">
+        <v>72</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Marimuthu</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rebaal</t>
+          <t>Kalimuthu</t>
         </is>
       </c>
       <c r="D58">
@@ -39434,10 +38808,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="A59" t="n">
+        <v>68</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -39491,19 +38863,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A60" t="n">
+        <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Lucky</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bhattarai</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="D60">
@@ -39548,19 +38918,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A61" t="n">
+        <v>55</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Debashish</t>
+          <t>Manith</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chakraborty</t>
+          <t>Marapperuma</t>
         </is>
       </c>
       <c r="D61">
@@ -39605,19 +38973,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A62" t="n">
+        <v>53</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gbada</t>
+          <t>Krzywda</t>
         </is>
       </c>
       <c r="D62">
@@ -39662,19 +39028,17 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A63" t="n">
+        <v>49</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Manith</t>
+          <t>Mazen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Marapperuma</t>
+          <t>Alotaibi</t>
         </is>
       </c>
       <c r="D63">
@@ -39719,19 +39083,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A64" t="n">
+        <v>48</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Goheen</t>
         </is>
       </c>
       <c r="D64">
@@ -39776,19 +39138,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A65" t="n">
+        <v>43</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rawanna</t>
+          <t>Yadnyesh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chathuranga</t>
+          <t>Chakane</t>
         </is>
       </c>
       <c r="D65">
@@ -39833,19 +39193,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A66" t="n">
+        <v>40</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Yadnyesh</t>
+          <t>Krishna</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chakane</t>
+          <t>Kalyan</t>
         </is>
       </c>
       <c r="D66">
@@ -39890,19 +39248,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A67" t="n">
+        <v>37</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wajahat</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Bharadwaj</t>
         </is>
       </c>
       <c r="D67">
@@ -39947,19 +39303,17 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="A68" t="n">
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>shashanka</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>br</t>
         </is>
       </c>
       <c r="D68">
@@ -40000,120 +39354,6 @@
       </c>
       <c r="M68">
         <f>SUM(D68,E68,F68,G68,H68,I68,J68,K68,L68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ojas</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Patil</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1811:I1812="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1813:I1815="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1816:I1817="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1818:I1824="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1825:I1828="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1829:I1830="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1831:I1832="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1833:I1836="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1837:I1837="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>SUM(D69,E69,F69,G69,H69,I69,J69,K69,L69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Irakli</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Salia</t>
-        </is>
-      </c>
-      <c r="D70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1838:I1839="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1840:I1842="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1843:I1844="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1845:I1851="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1852:I1855="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1856:I1857="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1858:I1859="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1860:I1863="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1864:I1864="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M70">
-        <f>SUM(D70,E70,F70,G70,H70,I70,J70,K70,L70)</f>
         <v/>
       </c>
     </row>
